--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.18919736606615</v>
+        <v>25.18919736606616</v>
       </c>
       <c r="C2">
-        <v>19.61910644263148</v>
+        <v>19.61910644263156</v>
       </c>
       <c r="D2">
-        <v>3.758301724869177</v>
+        <v>3.758301724868931</v>
       </c>
       <c r="F2">
         <v>17.8362156504104</v>
       </c>
       <c r="G2">
-        <v>12.8916708075802</v>
+        <v>12.89167080758015</v>
       </c>
       <c r="H2">
-        <v>9.348006052245369</v>
+        <v>9.348006052245363</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,22 +438,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.50423625388131</v>
+        <v>23.50423625388127</v>
       </c>
       <c r="C3">
-        <v>18.31224117801866</v>
+        <v>18.3122411780186</v>
       </c>
       <c r="D3">
-        <v>3.682385560282003</v>
+        <v>3.682385560282122</v>
       </c>
       <c r="F3">
-        <v>17.20472100688171</v>
+        <v>17.20472100688172</v>
       </c>
       <c r="G3">
-        <v>12.70815431050738</v>
+        <v>12.70815431050742</v>
       </c>
       <c r="H3">
-        <v>9.802444427100337</v>
+        <v>9.802444427100351</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -464,22 +464,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41118435585229</v>
+        <v>22.41118435585223</v>
       </c>
       <c r="C4">
-        <v>17.46571469459045</v>
+        <v>17.46571469459046</v>
       </c>
       <c r="D4">
-        <v>3.636427303909425</v>
+        <v>3.636427303909364</v>
       </c>
       <c r="F4">
-        <v>16.85197418253948</v>
+        <v>16.8519741825397</v>
       </c>
       <c r="G4">
-        <v>12.63245481124433</v>
+        <v>12.6324548112445</v>
       </c>
       <c r="H4">
-        <v>10.10549604918356</v>
+        <v>10.10549604918372</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -493,19 +493,19 @@
         <v>21.95094111584099</v>
       </c>
       <c r="C5">
-        <v>17.10957305703902</v>
+        <v>17.10957305703915</v>
       </c>
       <c r="D5">
-        <v>3.617869705221029</v>
+        <v>3.617869705220969</v>
       </c>
       <c r="F5">
-        <v>16.71701900544442</v>
+        <v>16.71701900544438</v>
       </c>
       <c r="G5">
-        <v>12.61043431399394</v>
+        <v>12.61043431399388</v>
       </c>
       <c r="H5">
-        <v>10.23440973942689</v>
+        <v>10.23440973942688</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -516,22 +516,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.87362019908792</v>
+        <v>21.87362019908778</v>
       </c>
       <c r="C6">
-        <v>17.0497588028621</v>
+        <v>17.04975880286202</v>
       </c>
       <c r="D6">
-        <v>3.614798746737476</v>
+        <v>3.614798746737712</v>
       </c>
       <c r="F6">
-        <v>16.69513941300593</v>
+        <v>16.6951394130061</v>
       </c>
       <c r="G6">
-        <v>12.60729610823179</v>
+        <v>12.60729610823207</v>
       </c>
       <c r="H6">
-        <v>10.25612697189347</v>
+        <v>10.25612697189371</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -542,22 +542,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40503748248361</v>
+        <v>22.40503748248366</v>
       </c>
       <c r="C7">
-        <v>17.46095699580042</v>
+        <v>17.46095699580048</v>
       </c>
       <c r="D7">
-        <v>3.636176329202113</v>
+        <v>3.636176329202053</v>
       </c>
       <c r="F7">
-        <v>16.85011858492641</v>
+        <v>16.85011858492616</v>
       </c>
       <c r="G7">
-        <v>12.63212275747708</v>
+        <v>12.6321227574768</v>
       </c>
       <c r="H7">
-        <v>10.10721342639757</v>
+        <v>10.10721342639721</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -571,19 +571,19 @@
         <v>24.6202902860156</v>
       </c>
       <c r="C8">
-        <v>19.17759914605681</v>
+        <v>19.17759914605675</v>
       </c>
       <c r="D8">
-        <v>3.731993246478364</v>
+        <v>3.731993246478438</v>
       </c>
       <c r="F8">
-        <v>17.61122599071658</v>
+        <v>17.61122599071665</v>
       </c>
       <c r="G8">
-        <v>12.82045473603674</v>
+        <v>12.82045473603685</v>
       </c>
       <c r="H8">
-        <v>9.49929571476258</v>
+        <v>9.499295714762725</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.50590530603282</v>
+        <v>28.50590530603274</v>
       </c>
       <c r="C9">
-        <v>22.19836058035791</v>
+        <v>22.19836058035787</v>
       </c>
       <c r="D9">
-        <v>3.924901427923292</v>
+        <v>3.924901427923319</v>
       </c>
       <c r="F9">
-        <v>19.37940911792951</v>
+        <v>19.37940911792961</v>
       </c>
       <c r="G9">
-        <v>13.50074426055756</v>
+        <v>13.50074426055766</v>
       </c>
       <c r="H9">
-        <v>8.533267565500015</v>
+        <v>8.533267565500131</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -620,22 +620,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08954760699783</v>
+        <v>31.08954760699784</v>
       </c>
       <c r="C10">
-        <v>24.21394781388287</v>
+        <v>24.21394781388286</v>
       </c>
       <c r="D10">
-        <v>4.069607924410114</v>
+        <v>4.06960792441012</v>
       </c>
       <c r="F10">
-        <v>20.84230162268217</v>
+        <v>20.84230162268221</v>
       </c>
       <c r="G10">
         <v>14.20882511945548</v>
       </c>
       <c r="H10">
-        <v>8.023687740841805</v>
+        <v>8.023687740841739</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -646,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20808164081722</v>
+        <v>32.20808164081723</v>
       </c>
       <c r="C11">
         <v>25.08837748618873</v>
       </c>
       <c r="D11">
-        <v>4.13612291850188</v>
+        <v>4.136122918501914</v>
       </c>
       <c r="F11">
-        <v>21.69639086594663</v>
+        <v>21.69639086594659</v>
       </c>
       <c r="G11">
-        <v>14.71579591161006</v>
+        <v>14.71579591161001</v>
       </c>
       <c r="H11">
-        <v>7.85310684911789</v>
+        <v>7.853106849117937</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.62365984918961</v>
+        <v>32.62365984918952</v>
       </c>
       <c r="C12">
         <v>25.4135528902695</v>
       </c>
       <c r="D12">
-        <v>4.161416397836979</v>
+        <v>4.161416397836951</v>
       </c>
       <c r="F12">
         <v>22.03023706013869</v>
@@ -687,7 +687,7 @@
         <v>14.96378428066389</v>
       </c>
       <c r="H12">
-        <v>7.799067483118784</v>
+        <v>7.799067483118945</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>32.53450984044748</v>
       </c>
       <c r="C13">
-        <v>25.34378263529916</v>
+        <v>25.34378263529917</v>
       </c>
       <c r="D13">
         <v>4.155964143883811</v>
       </c>
       <c r="F13">
-        <v>21.95827611097283</v>
+        <v>21.95827611097291</v>
       </c>
       <c r="G13">
-        <v>14.91030368103929</v>
+        <v>14.91030368103935</v>
       </c>
       <c r="H13">
-        <v>7.810206780146478</v>
+        <v>7.81020678014653</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.24243049361338</v>
+        <v>32.24243049361337</v>
       </c>
       <c r="C14">
-        <v>25.11524820834305</v>
+        <v>25.11524820834329</v>
       </c>
       <c r="D14">
-        <v>4.138201657222811</v>
+        <v>4.138201657222756</v>
       </c>
       <c r="F14">
-        <v>21.72382910684666</v>
+        <v>21.72382910684665</v>
       </c>
       <c r="G14">
         <v>14.73616573332898</v>
       </c>
       <c r="H14">
-        <v>7.848438835261005</v>
+        <v>7.848438835260964</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06248894858872</v>
+        <v>32.06248894858875</v>
       </c>
       <c r="C15">
-        <v>24.97449399655715</v>
+        <v>24.97449399655714</v>
       </c>
       <c r="D15">
-        <v>4.127335653699437</v>
+        <v>4.127335653699358</v>
       </c>
       <c r="F15">
-        <v>21.58040172015681</v>
+        <v>21.58040172015684</v>
       </c>
       <c r="G15">
-        <v>14.6297110466305</v>
+        <v>14.62971104663056</v>
       </c>
       <c r="H15">
-        <v>7.873286562992497</v>
+        <v>7.873286562992378</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -776,22 +776,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.0153211588147</v>
+        <v>31.01532115881473</v>
       </c>
       <c r="C16">
-        <v>24.15596006977217</v>
+        <v>24.1559600697722</v>
       </c>
       <c r="D16">
-        <v>4.065275345699299</v>
+        <v>4.065275345699217</v>
       </c>
       <c r="F16">
-        <v>20.79723661875416</v>
+        <v>20.79723661875402</v>
       </c>
       <c r="G16">
-        <v>14.18562312186011</v>
+        <v>14.18562312186</v>
       </c>
       <c r="H16">
-        <v>8.036213393723825</v>
+        <v>8.036213393723756</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35849765073283</v>
+        <v>30.35849765073286</v>
       </c>
       <c r="C17">
         <v>23.64304382841156</v>
       </c>
       <c r="D17">
-        <v>4.027383121944399</v>
+        <v>4.02738312194443</v>
       </c>
       <c r="F17">
-        <v>20.40616768507522</v>
+        <v>20.40616768507514</v>
       </c>
       <c r="G17">
-        <v>13.98766030479736</v>
+        <v>13.98766030479732</v>
       </c>
       <c r="H17">
-        <v>8.153034146157287</v>
+        <v>8.153034146157273</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -828,22 +828,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.97535442284853</v>
+        <v>29.9753544228485</v>
       </c>
       <c r="C18">
-        <v>23.34402023203335</v>
+        <v>23.34402023203339</v>
       </c>
       <c r="D18">
-        <v>4.005652584635413</v>
+        <v>4.005652584635283</v>
       </c>
       <c r="F18">
-        <v>20.18450234796305</v>
+        <v>20.18450234796312</v>
       </c>
       <c r="G18">
-        <v>13.87829576699448</v>
+        <v>13.8782957669945</v>
       </c>
       <c r="H18">
-        <v>8.225871454547285</v>
+        <v>8.225871454547297</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -854,22 +854,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.84470366970543</v>
+        <v>29.84470366970537</v>
       </c>
       <c r="C19">
-        <v>23.24208316444939</v>
+        <v>23.2420831644495</v>
       </c>
       <c r="D19">
-        <v>3.998305852261972</v>
+        <v>3.998305852261927</v>
       </c>
       <c r="F19">
-        <v>20.11001346795069</v>
+        <v>20.11001346795063</v>
       </c>
       <c r="G19">
-        <v>13.84203453656323</v>
+        <v>13.84203453656319</v>
       </c>
       <c r="H19">
-        <v>8.25145208578164</v>
+        <v>8.251452085781622</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42897068715697</v>
+        <v>30.42897068715701</v>
       </c>
       <c r="C20">
-        <v>23.69805834800214</v>
+        <v>23.69805834800216</v>
       </c>
       <c r="D20">
-        <v>4.031410145137183</v>
+        <v>4.031410145137137</v>
       </c>
       <c r="F20">
-        <v>20.44745996501909</v>
+        <v>20.44745996501905</v>
       </c>
       <c r="G20">
-        <v>14.00826708520859</v>
+        <v>14.00826708520853</v>
       </c>
       <c r="H20">
-        <v>8.140002004789109</v>
+        <v>8.140002004788984</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32843652936016</v>
+        <v>32.32843652936022</v>
       </c>
       <c r="C21">
-        <v>25.18253453529008</v>
+        <v>25.18253453529017</v>
       </c>
       <c r="D21">
-        <v>4.143415988137999</v>
+        <v>4.143415988138013</v>
       </c>
       <c r="F21">
-        <v>21.79265464373992</v>
+        <v>21.79265464374001</v>
       </c>
       <c r="G21">
-        <v>14.78727048331039</v>
+        <v>14.78727048331046</v>
       </c>
       <c r="H21">
-        <v>7.836907910070799</v>
+        <v>7.836907910070652</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -935,19 +935,19 @@
         <v>33.52339062644752</v>
       </c>
       <c r="C22">
-        <v>26.11811534622074</v>
+        <v>26.11811534622079</v>
       </c>
       <c r="D22">
-        <v>4.217240337866551</v>
+        <v>4.217240337866486</v>
       </c>
       <c r="F22">
-        <v>22.76690904411174</v>
+        <v>22.76690904411198</v>
       </c>
       <c r="G22">
-        <v>15.5120660410803</v>
+        <v>15.51206604108053</v>
       </c>
       <c r="H22">
-        <v>7.701254379420316</v>
+        <v>7.701254379420269</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.88980898659477</v>
+        <v>32.88980898659488</v>
       </c>
       <c r="C23">
-        <v>25.62188972208503</v>
+        <v>25.6218897220852</v>
       </c>
       <c r="D23">
-        <v>4.177778699591244</v>
+        <v>4.177778699591308</v>
       </c>
       <c r="F23">
-        <v>22.24618226212976</v>
+        <v>22.24618226212981</v>
       </c>
       <c r="G23">
-        <v>15.12435733754074</v>
+        <v>15.12435733754078</v>
       </c>
       <c r="H23">
-        <v>7.767326416512678</v>
+        <v>7.767326416512524</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39712705493765</v>
+        <v>30.39712705493757</v>
       </c>
       <c r="C24">
-        <v>23.673199194196</v>
+        <v>23.6731991941959</v>
       </c>
       <c r="D24">
-        <v>4.029589359578472</v>
+        <v>4.029589359578534</v>
       </c>
       <c r="F24">
-        <v>20.42878186162036</v>
+        <v>20.42878186162043</v>
       </c>
       <c r="G24">
-        <v>13.99893691944303</v>
+        <v>13.99893691944314</v>
       </c>
       <c r="H24">
-        <v>8.145876289069859</v>
+        <v>8.14587628907011</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>27.50300270446132</v>
       </c>
       <c r="C25">
-        <v>21.41749094693683</v>
+        <v>21.41749094693689</v>
       </c>
       <c r="D25">
-        <v>3.872194789541376</v>
+        <v>3.872194789541349</v>
       </c>
       <c r="F25">
-        <v>18.87194648320766</v>
+        <v>18.87194648320763</v>
       </c>
       <c r="G25">
-        <v>13.2812165976526</v>
+        <v>13.28121659765253</v>
       </c>
       <c r="H25">
-        <v>8.764729508846342</v>
+        <v>8.764729508846203</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.18919736606616</v>
+        <v>25.18919736606615</v>
       </c>
       <c r="C2">
-        <v>19.61910644263156</v>
+        <v>19.61910644263148</v>
       </c>
       <c r="D2">
-        <v>3.758301724868931</v>
+        <v>3.758301724869177</v>
       </c>
       <c r="F2">
         <v>17.8362156504104</v>
       </c>
       <c r="G2">
-        <v>12.89167080758015</v>
+        <v>12.8916708075802</v>
       </c>
       <c r="H2">
-        <v>9.348006052245363</v>
+        <v>9.348006052245369</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,22 +438,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.50423625388127</v>
+        <v>23.50423625388131</v>
       </c>
       <c r="C3">
-        <v>18.3122411780186</v>
+        <v>18.31224117801866</v>
       </c>
       <c r="D3">
-        <v>3.682385560282122</v>
+        <v>3.682385560282003</v>
       </c>
       <c r="F3">
-        <v>17.20472100688172</v>
+        <v>17.20472100688171</v>
       </c>
       <c r="G3">
-        <v>12.70815431050742</v>
+        <v>12.70815431050738</v>
       </c>
       <c r="H3">
-        <v>9.802444427100351</v>
+        <v>9.802444427100337</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -464,22 +464,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41118435585223</v>
+        <v>22.41118435585229</v>
       </c>
       <c r="C4">
-        <v>17.46571469459046</v>
+        <v>17.46571469459045</v>
       </c>
       <c r="D4">
-        <v>3.636427303909364</v>
+        <v>3.636427303909425</v>
       </c>
       <c r="F4">
-        <v>16.8519741825397</v>
+        <v>16.85197418253948</v>
       </c>
       <c r="G4">
-        <v>12.6324548112445</v>
+        <v>12.63245481124433</v>
       </c>
       <c r="H4">
-        <v>10.10549604918372</v>
+        <v>10.10549604918356</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -493,19 +493,19 @@
         <v>21.95094111584099</v>
       </c>
       <c r="C5">
-        <v>17.10957305703915</v>
+        <v>17.10957305703902</v>
       </c>
       <c r="D5">
-        <v>3.617869705220969</v>
+        <v>3.617869705221029</v>
       </c>
       <c r="F5">
-        <v>16.71701900544438</v>
+        <v>16.71701900544442</v>
       </c>
       <c r="G5">
-        <v>12.61043431399388</v>
+        <v>12.61043431399394</v>
       </c>
       <c r="H5">
-        <v>10.23440973942688</v>
+        <v>10.23440973942689</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -516,22 +516,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.87362019908778</v>
+        <v>21.87362019908792</v>
       </c>
       <c r="C6">
-        <v>17.04975880286202</v>
+        <v>17.0497588028621</v>
       </c>
       <c r="D6">
-        <v>3.614798746737712</v>
+        <v>3.614798746737476</v>
       </c>
       <c r="F6">
-        <v>16.6951394130061</v>
+        <v>16.69513941300593</v>
       </c>
       <c r="G6">
-        <v>12.60729610823207</v>
+        <v>12.60729610823179</v>
       </c>
       <c r="H6">
-        <v>10.25612697189371</v>
+        <v>10.25612697189347</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -542,22 +542,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40503748248366</v>
+        <v>22.40503748248361</v>
       </c>
       <c r="C7">
-        <v>17.46095699580048</v>
+        <v>17.46095699580042</v>
       </c>
       <c r="D7">
-        <v>3.636176329202053</v>
+        <v>3.636176329202113</v>
       </c>
       <c r="F7">
-        <v>16.85011858492616</v>
+        <v>16.85011858492641</v>
       </c>
       <c r="G7">
-        <v>12.6321227574768</v>
+        <v>12.63212275747708</v>
       </c>
       <c r="H7">
-        <v>10.10721342639721</v>
+        <v>10.10721342639757</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -571,19 +571,19 @@
         <v>24.6202902860156</v>
       </c>
       <c r="C8">
-        <v>19.17759914605675</v>
+        <v>19.17759914605681</v>
       </c>
       <c r="D8">
-        <v>3.731993246478438</v>
+        <v>3.731993246478364</v>
       </c>
       <c r="F8">
-        <v>17.61122599071665</v>
+        <v>17.61122599071658</v>
       </c>
       <c r="G8">
-        <v>12.82045473603685</v>
+        <v>12.82045473603674</v>
       </c>
       <c r="H8">
-        <v>9.499295714762725</v>
+        <v>9.49929571476258</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.50590530603274</v>
+        <v>28.50590530603282</v>
       </c>
       <c r="C9">
-        <v>22.19836058035787</v>
+        <v>22.19836058035791</v>
       </c>
       <c r="D9">
-        <v>3.924901427923319</v>
+        <v>3.924901427923292</v>
       </c>
       <c r="F9">
-        <v>19.37940911792961</v>
+        <v>19.37940911792951</v>
       </c>
       <c r="G9">
-        <v>13.50074426055766</v>
+        <v>13.50074426055756</v>
       </c>
       <c r="H9">
-        <v>8.533267565500131</v>
+        <v>8.533267565500015</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -620,22 +620,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08954760699784</v>
+        <v>31.08954760699783</v>
       </c>
       <c r="C10">
-        <v>24.21394781388286</v>
+        <v>24.21394781388287</v>
       </c>
       <c r="D10">
-        <v>4.06960792441012</v>
+        <v>4.069607924410114</v>
       </c>
       <c r="F10">
-        <v>20.84230162268221</v>
+        <v>20.84230162268217</v>
       </c>
       <c r="G10">
         <v>14.20882511945548</v>
       </c>
       <c r="H10">
-        <v>8.023687740841739</v>
+        <v>8.023687740841805</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -646,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20808164081723</v>
+        <v>32.20808164081722</v>
       </c>
       <c r="C11">
         <v>25.08837748618873</v>
       </c>
       <c r="D11">
-        <v>4.136122918501914</v>
+        <v>4.13612291850188</v>
       </c>
       <c r="F11">
-        <v>21.69639086594659</v>
+        <v>21.69639086594663</v>
       </c>
       <c r="G11">
-        <v>14.71579591161001</v>
+        <v>14.71579591161006</v>
       </c>
       <c r="H11">
-        <v>7.853106849117937</v>
+        <v>7.85310684911789</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.62365984918952</v>
+        <v>32.62365984918961</v>
       </c>
       <c r="C12">
         <v>25.4135528902695</v>
       </c>
       <c r="D12">
-        <v>4.161416397836951</v>
+        <v>4.161416397836979</v>
       </c>
       <c r="F12">
         <v>22.03023706013869</v>
@@ -687,7 +687,7 @@
         <v>14.96378428066389</v>
       </c>
       <c r="H12">
-        <v>7.799067483118945</v>
+        <v>7.799067483118784</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>32.53450984044748</v>
       </c>
       <c r="C13">
-        <v>25.34378263529917</v>
+        <v>25.34378263529916</v>
       </c>
       <c r="D13">
         <v>4.155964143883811</v>
       </c>
       <c r="F13">
-        <v>21.95827611097291</v>
+        <v>21.95827611097283</v>
       </c>
       <c r="G13">
-        <v>14.91030368103935</v>
+        <v>14.91030368103929</v>
       </c>
       <c r="H13">
-        <v>7.81020678014653</v>
+        <v>7.810206780146478</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.24243049361337</v>
+        <v>32.24243049361338</v>
       </c>
       <c r="C14">
-        <v>25.11524820834329</v>
+        <v>25.11524820834305</v>
       </c>
       <c r="D14">
-        <v>4.138201657222756</v>
+        <v>4.138201657222811</v>
       </c>
       <c r="F14">
-        <v>21.72382910684665</v>
+        <v>21.72382910684666</v>
       </c>
       <c r="G14">
         <v>14.73616573332898</v>
       </c>
       <c r="H14">
-        <v>7.848438835260964</v>
+        <v>7.848438835261005</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06248894858875</v>
+        <v>32.06248894858872</v>
       </c>
       <c r="C15">
-        <v>24.97449399655714</v>
+        <v>24.97449399655715</v>
       </c>
       <c r="D15">
-        <v>4.127335653699358</v>
+        <v>4.127335653699437</v>
       </c>
       <c r="F15">
-        <v>21.58040172015684</v>
+        <v>21.58040172015681</v>
       </c>
       <c r="G15">
-        <v>14.62971104663056</v>
+        <v>14.6297110466305</v>
       </c>
       <c r="H15">
-        <v>7.873286562992378</v>
+        <v>7.873286562992497</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -776,22 +776,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.01532115881473</v>
+        <v>31.0153211588147</v>
       </c>
       <c r="C16">
-        <v>24.1559600697722</v>
+        <v>24.15596006977217</v>
       </c>
       <c r="D16">
-        <v>4.065275345699217</v>
+        <v>4.065275345699299</v>
       </c>
       <c r="F16">
-        <v>20.79723661875402</v>
+        <v>20.79723661875416</v>
       </c>
       <c r="G16">
-        <v>14.18562312186</v>
+        <v>14.18562312186011</v>
       </c>
       <c r="H16">
-        <v>8.036213393723756</v>
+        <v>8.036213393723825</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35849765073286</v>
+        <v>30.35849765073283</v>
       </c>
       <c r="C17">
         <v>23.64304382841156</v>
       </c>
       <c r="D17">
-        <v>4.02738312194443</v>
+        <v>4.027383121944399</v>
       </c>
       <c r="F17">
-        <v>20.40616768507514</v>
+        <v>20.40616768507522</v>
       </c>
       <c r="G17">
-        <v>13.98766030479732</v>
+        <v>13.98766030479736</v>
       </c>
       <c r="H17">
-        <v>8.153034146157273</v>
+        <v>8.153034146157287</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -828,22 +828,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.9753544228485</v>
+        <v>29.97535442284853</v>
       </c>
       <c r="C18">
-        <v>23.34402023203339</v>
+        <v>23.34402023203335</v>
       </c>
       <c r="D18">
-        <v>4.005652584635283</v>
+        <v>4.005652584635413</v>
       </c>
       <c r="F18">
-        <v>20.18450234796312</v>
+        <v>20.18450234796305</v>
       </c>
       <c r="G18">
-        <v>13.8782957669945</v>
+        <v>13.87829576699448</v>
       </c>
       <c r="H18">
-        <v>8.225871454547297</v>
+        <v>8.225871454547285</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -854,22 +854,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.84470366970537</v>
+        <v>29.84470366970543</v>
       </c>
       <c r="C19">
-        <v>23.2420831644495</v>
+        <v>23.24208316444939</v>
       </c>
       <c r="D19">
-        <v>3.998305852261927</v>
+        <v>3.998305852261972</v>
       </c>
       <c r="F19">
-        <v>20.11001346795063</v>
+        <v>20.11001346795069</v>
       </c>
       <c r="G19">
-        <v>13.84203453656319</v>
+        <v>13.84203453656323</v>
       </c>
       <c r="H19">
-        <v>8.251452085781622</v>
+        <v>8.25145208578164</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42897068715701</v>
+        <v>30.42897068715697</v>
       </c>
       <c r="C20">
-        <v>23.69805834800216</v>
+        <v>23.69805834800214</v>
       </c>
       <c r="D20">
-        <v>4.031410145137137</v>
+        <v>4.031410145137183</v>
       </c>
       <c r="F20">
-        <v>20.44745996501905</v>
+        <v>20.44745996501909</v>
       </c>
       <c r="G20">
-        <v>14.00826708520853</v>
+        <v>14.00826708520859</v>
       </c>
       <c r="H20">
-        <v>8.140002004788984</v>
+        <v>8.140002004789109</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32843652936022</v>
+        <v>32.32843652936016</v>
       </c>
       <c r="C21">
-        <v>25.18253453529017</v>
+        <v>25.18253453529008</v>
       </c>
       <c r="D21">
-        <v>4.143415988138013</v>
+        <v>4.143415988137999</v>
       </c>
       <c r="F21">
-        <v>21.79265464374001</v>
+        <v>21.79265464373992</v>
       </c>
       <c r="G21">
-        <v>14.78727048331046</v>
+        <v>14.78727048331039</v>
       </c>
       <c r="H21">
-        <v>7.836907910070652</v>
+        <v>7.836907910070799</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -935,19 +935,19 @@
         <v>33.52339062644752</v>
       </c>
       <c r="C22">
-        <v>26.11811534622079</v>
+        <v>26.11811534622074</v>
       </c>
       <c r="D22">
-        <v>4.217240337866486</v>
+        <v>4.217240337866551</v>
       </c>
       <c r="F22">
-        <v>22.76690904411198</v>
+        <v>22.76690904411174</v>
       </c>
       <c r="G22">
-        <v>15.51206604108053</v>
+        <v>15.5120660410803</v>
       </c>
       <c r="H22">
-        <v>7.701254379420269</v>
+        <v>7.701254379420316</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.88980898659488</v>
+        <v>32.88980898659477</v>
       </c>
       <c r="C23">
-        <v>25.6218897220852</v>
+        <v>25.62188972208503</v>
       </c>
       <c r="D23">
-        <v>4.177778699591308</v>
+        <v>4.177778699591244</v>
       </c>
       <c r="F23">
-        <v>22.24618226212981</v>
+        <v>22.24618226212976</v>
       </c>
       <c r="G23">
-        <v>15.12435733754078</v>
+        <v>15.12435733754074</v>
       </c>
       <c r="H23">
-        <v>7.767326416512524</v>
+        <v>7.767326416512678</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39712705493757</v>
+        <v>30.39712705493765</v>
       </c>
       <c r="C24">
-        <v>23.6731991941959</v>
+        <v>23.673199194196</v>
       </c>
       <c r="D24">
-        <v>4.029589359578534</v>
+        <v>4.029589359578472</v>
       </c>
       <c r="F24">
-        <v>20.42878186162043</v>
+        <v>20.42878186162036</v>
       </c>
       <c r="G24">
-        <v>13.99893691944314</v>
+        <v>13.99893691944303</v>
       </c>
       <c r="H24">
-        <v>8.14587628907011</v>
+        <v>8.145876289069859</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1013,19 +1013,19 @@
         <v>27.50300270446132</v>
       </c>
       <c r="C25">
-        <v>21.41749094693689</v>
+        <v>21.41749094693683</v>
       </c>
       <c r="D25">
-        <v>3.872194789541349</v>
+        <v>3.872194789541376</v>
       </c>
       <c r="F25">
-        <v>18.87194648320763</v>
+        <v>18.87194648320766</v>
       </c>
       <c r="G25">
-        <v>13.28121659765253</v>
+        <v>13.2812165976526</v>
       </c>
       <c r="H25">
-        <v>8.764729508846203</v>
+        <v>8.764729508846342</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,628 +406,703 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.18919736606615</v>
+        <v>25.1889933880228</v>
       </c>
       <c r="C2">
-        <v>19.61910644263148</v>
+        <v>19.61700626164038</v>
       </c>
       <c r="D2">
-        <v>3.758301724869177</v>
+        <v>3.760177969755632</v>
       </c>
       <c r="F2">
-        <v>17.8362156504104</v>
+        <v>17.82600298248279</v>
       </c>
       <c r="G2">
-        <v>12.8916708075802</v>
+        <v>11.40109707933112</v>
       </c>
       <c r="H2">
-        <v>9.348006052245369</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.91193028102976</v>
+      </c>
+      <c r="I2">
+        <v>9.343309103018159</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.50423625388131</v>
+        <v>23.50414888604365</v>
       </c>
       <c r="C3">
-        <v>18.31224117801866</v>
+        <v>18.3103982493786</v>
       </c>
       <c r="D3">
-        <v>3.682385560282003</v>
+        <v>3.683967120060354</v>
       </c>
       <c r="F3">
-        <v>17.20472100688171</v>
+        <v>17.19511419653813</v>
       </c>
       <c r="G3">
-        <v>12.70815431050738</v>
+        <v>10.87392746681516</v>
       </c>
       <c r="H3">
-        <v>9.802444427100337</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.72824184617099</v>
+      </c>
+      <c r="I3">
+        <v>9.798103141433076</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41118435585229</v>
+        <v>22.411168368497</v>
       </c>
       <c r="C4">
-        <v>17.46571469459045</v>
+        <v>17.46403544511807</v>
       </c>
       <c r="D4">
-        <v>3.636427303909425</v>
+        <v>3.637815614795862</v>
       </c>
       <c r="F4">
-        <v>16.85197418253948</v>
+        <v>16.84273902559205</v>
       </c>
       <c r="G4">
-        <v>12.63245481124433</v>
+        <v>10.57866366253627</v>
       </c>
       <c r="H4">
-        <v>10.10549604918356</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.65252512435882</v>
+      </c>
+      <c r="I4">
+        <v>10.10133999903227</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.95094111584099</v>
+        <v>21.95095431042748</v>
       </c>
       <c r="C5">
-        <v>17.10957305703902</v>
+        <v>17.107962153356</v>
       </c>
       <c r="D5">
-        <v>3.617869705221029</v>
+        <v>3.619176342949506</v>
       </c>
       <c r="F5">
-        <v>16.71701900544442</v>
+        <v>16.70793505389767</v>
       </c>
       <c r="G5">
-        <v>12.61043431399394</v>
+        <v>10.46559586668412</v>
       </c>
       <c r="H5">
-        <v>10.23440973942689</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>12.63051864514205</v>
+      </c>
+      <c r="I5">
+        <v>10.2303220243623</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.87362019908792</v>
+        <v>21.87363824943464</v>
       </c>
       <c r="C6">
-        <v>17.0497588028621</v>
+        <v>17.0481593535857</v>
       </c>
       <c r="D6">
-        <v>3.614798746737476</v>
+        <v>3.616091651437166</v>
       </c>
       <c r="F6">
-        <v>16.69513941300593</v>
+        <v>16.68608054826614</v>
       </c>
       <c r="G6">
-        <v>12.60729610823179</v>
+        <v>10.44726122212142</v>
       </c>
       <c r="H6">
-        <v>10.25612697189347</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.62738399946139</v>
+      </c>
+      <c r="I6">
+        <v>10.2520502051446</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40503748248361</v>
+        <v>22.40502188810593</v>
       </c>
       <c r="C7">
-        <v>17.46095699580042</v>
+        <v>17.45927866112053</v>
       </c>
       <c r="D7">
-        <v>3.636176329202113</v>
+        <v>3.637563550213457</v>
       </c>
       <c r="F7">
-        <v>16.85011858492641</v>
+        <v>16.84088546844232</v>
       </c>
       <c r="G7">
-        <v>12.63212275747708</v>
+        <v>10.57710931601273</v>
       </c>
       <c r="H7">
-        <v>10.10721342639757</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12.65219317616793</v>
+      </c>
+      <c r="I7">
+        <v>10.10305832527544</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.6202902860156</v>
+        <v>24.62012664894137</v>
       </c>
       <c r="C8">
-        <v>19.17759914605681</v>
+        <v>19.17558659760649</v>
       </c>
       <c r="D8">
-        <v>3.731993246478364</v>
+        <v>3.73377053985112</v>
       </c>
       <c r="F8">
-        <v>17.61122599071658</v>
+        <v>17.60122221988311</v>
       </c>
       <c r="G8">
-        <v>12.82045473603674</v>
+        <v>11.21351061183038</v>
       </c>
       <c r="H8">
-        <v>9.49929571476258</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.84063594451831</v>
+      </c>
+      <c r="I8">
+        <v>9.494729008004702</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.50590530603282</v>
+        <v>28.50544304493607</v>
       </c>
       <c r="C9">
-        <v>22.19836058035791</v>
+        <v>22.19572930924675</v>
       </c>
       <c r="D9">
-        <v>3.924901427923292</v>
+        <v>3.927338828583264</v>
       </c>
       <c r="F9">
-        <v>19.37940911792951</v>
+        <v>19.36789432131496</v>
       </c>
       <c r="G9">
-        <v>13.50074426055756</v>
+        <v>12.68077220349275</v>
       </c>
       <c r="H9">
-        <v>8.533267565500015</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.521884121939</v>
+      </c>
+      <c r="I9">
+        <v>8.527576959674271</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08954760699783</v>
+        <v>31.08885153506314</v>
       </c>
       <c r="C10">
-        <v>24.21394781388287</v>
+        <v>24.21087234462038</v>
       </c>
       <c r="D10">
-        <v>4.069607924410114</v>
+        <v>4.072457407007565</v>
       </c>
       <c r="F10">
-        <v>20.84230162268217</v>
+        <v>20.8296740031692</v>
       </c>
       <c r="G10">
-        <v>14.20882511945548</v>
+        <v>14.08818939922305</v>
       </c>
       <c r="H10">
-        <v>8.023687740841805</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.23115681904931</v>
+      </c>
+      <c r="I10">
+        <v>8.016916232281094</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20808164081722</v>
+        <v>32.2072738501243</v>
       </c>
       <c r="C11">
-        <v>25.08837748618873</v>
+        <v>25.08509946656518</v>
       </c>
       <c r="D11">
-        <v>4.13612291850188</v>
+        <v>4.139142279753486</v>
       </c>
       <c r="F11">
-        <v>21.69639086594663</v>
+        <v>21.6828431850767</v>
       </c>
       <c r="G11">
-        <v>14.71579591161006</v>
+        <v>14.73984802641434</v>
       </c>
       <c r="H11">
-        <v>7.85310684911789</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.60176469315508</v>
+      </c>
+      <c r="I11">
+        <v>7.845783698738239</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.62365984918961</v>
+        <v>32.62280877567829</v>
       </c>
       <c r="C12">
-        <v>25.4135528902695</v>
+        <v>25.41019785329044</v>
       </c>
       <c r="D12">
-        <v>4.161416397836979</v>
+        <v>4.164497421220418</v>
       </c>
       <c r="F12">
-        <v>22.03023706013869</v>
+        <v>22.01650297155766</v>
       </c>
       <c r="G12">
-        <v>14.96378428066389</v>
+        <v>14.98823141702651</v>
       </c>
       <c r="H12">
-        <v>7.799067483118784</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.74914112424831</v>
+      </c>
+      <c r="I12">
+        <v>7.791527613790042</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.53450984044748</v>
+        <v>32.53366813569279</v>
       </c>
       <c r="C13">
-        <v>25.34378263529916</v>
+        <v>25.34044420362816</v>
       </c>
       <c r="D13">
-        <v>4.155964143883811</v>
+        <v>4.159032008044381</v>
       </c>
       <c r="F13">
-        <v>21.95827611097283</v>
+        <v>21.94458223959259</v>
       </c>
       <c r="G13">
-        <v>14.91030368103929</v>
+        <v>14.93466544802916</v>
       </c>
       <c r="H13">
-        <v>7.810206780146478</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.71708622346932</v>
+      </c>
+      <c r="I13">
+        <v>7.80271390761484</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.24243049361338</v>
+        <v>32.24161916287704</v>
       </c>
       <c r="C14">
-        <v>25.11524820834305</v>
+        <v>25.11196386028714</v>
       </c>
       <c r="D14">
-        <v>4.138201657222811</v>
+        <v>4.141226145699951</v>
       </c>
       <c r="F14">
-        <v>21.72382910684666</v>
+        <v>21.71026612137249</v>
       </c>
       <c r="G14">
-        <v>14.73616573332898</v>
+        <v>14.76025021334309</v>
       </c>
       <c r="H14">
-        <v>7.848438835261005</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.61374777004576</v>
+      </c>
+      <c r="I14">
+        <v>7.841098003286387</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06248894858872</v>
+        <v>32.06169608897999</v>
       </c>
       <c r="C15">
-        <v>24.97449399655715</v>
+        <v>24.97124272740104</v>
       </c>
       <c r="D15">
-        <v>4.127335653699437</v>
+        <v>4.130333221873856</v>
       </c>
       <c r="F15">
-        <v>21.58040172015681</v>
+        <v>21.56691870653922</v>
       </c>
       <c r="G15">
-        <v>14.6297110466305</v>
+        <v>14.65362655167713</v>
       </c>
       <c r="H15">
-        <v>7.873286562992497</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.55136970669733</v>
+      </c>
+      <c r="I15">
+        <v>7.866037885136386</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.0153211588147</v>
+        <v>31.01463226300187</v>
       </c>
       <c r="C16">
-        <v>24.15596006977217</v>
+        <v>24.15289780740037</v>
       </c>
       <c r="D16">
-        <v>4.065275345699299</v>
+        <v>4.068113360608573</v>
       </c>
       <c r="F16">
-        <v>20.79723661875416</v>
+        <v>20.78464220134639</v>
       </c>
       <c r="G16">
-        <v>14.18562312186011</v>
+        <v>14.04582768161509</v>
       </c>
       <c r="H16">
-        <v>8.036213393723825</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>14.20791449511725</v>
+      </c>
+      <c r="I16">
+        <v>8.029476771883013</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35849765073283</v>
+        <v>30.35787102114711</v>
       </c>
       <c r="C17">
-        <v>23.64304382841156</v>
+        <v>23.64009722372395</v>
       </c>
       <c r="D17">
-        <v>4.027383121944399</v>
+        <v>4.030118653440713</v>
       </c>
       <c r="F17">
-        <v>20.40616768507522</v>
+        <v>20.3938638469833</v>
       </c>
       <c r="G17">
-        <v>13.98766030479736</v>
+        <v>13.67584399370858</v>
       </c>
       <c r="H17">
-        <v>8.153034146157287</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>14.00961035488259</v>
+      </c>
+      <c r="I17">
+        <v>8.146596514833346</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.97535442284853</v>
+        <v>29.97476311653546</v>
       </c>
       <c r="C18">
-        <v>23.34402023203335</v>
+        <v>23.3411401211204</v>
       </c>
       <c r="D18">
-        <v>4.005652584635413</v>
+        <v>4.008327523764808</v>
       </c>
       <c r="F18">
-        <v>20.18450234796305</v>
+        <v>20.17236536596736</v>
       </c>
       <c r="G18">
-        <v>13.87829576699448</v>
+        <v>13.46411081544515</v>
       </c>
       <c r="H18">
-        <v>8.225871454547285</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>13.90005968777607</v>
+      </c>
+      <c r="I18">
+        <v>8.219600045254364</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.84470366970543</v>
+        <v>29.84412424491619</v>
       </c>
       <c r="C19">
-        <v>23.24208316444939</v>
+        <v>23.23922556926492</v>
       </c>
       <c r="D19">
-        <v>3.998305852261972</v>
+        <v>4.000959997343687</v>
       </c>
       <c r="F19">
-        <v>20.11001346795069</v>
+        <v>20.09793294192322</v>
       </c>
       <c r="G19">
-        <v>13.84203453656323</v>
+        <v>13.39260770891124</v>
       </c>
       <c r="H19">
-        <v>8.25145208578164</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>13.86373718858764</v>
+      </c>
+      <c r="I19">
+        <v>8.245235963322203</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42897068715697</v>
+        <v>30.42833748142678</v>
       </c>
       <c r="C20">
-        <v>23.69805834800214</v>
+        <v>23.69509943611759</v>
       </c>
       <c r="D20">
-        <v>4.031410145137183</v>
+        <v>4.034156757604227</v>
       </c>
       <c r="F20">
-        <v>20.44745996501909</v>
+        <v>20.43512522519338</v>
       </c>
       <c r="G20">
-        <v>14.00826708520859</v>
+        <v>13.71511891219656</v>
       </c>
       <c r="H20">
-        <v>8.140002004789109</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>14.03025241544791</v>
+      </c>
+      <c r="I20">
+        <v>8.13353313841702</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32843652936016</v>
+        <v>32.32761630533421</v>
       </c>
       <c r="C21">
-        <v>25.18253453529008</v>
+        <v>25.17923431222637</v>
       </c>
       <c r="D21">
-        <v>4.143415988137999</v>
+        <v>4.146453290591259</v>
       </c>
       <c r="F21">
-        <v>21.79265464373992</v>
+        <v>21.77905325634874</v>
       </c>
       <c r="G21">
-        <v>14.78727048331039</v>
+        <v>14.81143622863569</v>
       </c>
       <c r="H21">
-        <v>7.836907910070799</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>14.64390890695414</v>
+      </c>
+      <c r="I21">
+        <v>7.829522620180105</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.52339062644752</v>
+        <v>33.52244236363214</v>
       </c>
       <c r="C22">
-        <v>26.11811534622074</v>
+        <v>26.11459008158547</v>
       </c>
       <c r="D22">
-        <v>4.217240337866551</v>
+        <v>4.220452012771656</v>
       </c>
       <c r="F22">
-        <v>22.76690904411174</v>
+        <v>22.75276193291545</v>
       </c>
       <c r="G22">
-        <v>15.5120660410803</v>
+        <v>15.53739355388419</v>
       </c>
       <c r="H22">
-        <v>7.701254379420316</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>15.16405869354409</v>
+      </c>
+      <c r="I22">
+        <v>7.693225811888797</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.88980898659477</v>
+        <v>32.88892966729004</v>
       </c>
       <c r="C23">
-        <v>25.62188972208503</v>
+        <v>25.6184848352963</v>
       </c>
       <c r="D23">
-        <v>4.177778699591244</v>
+        <v>4.180898782541687</v>
       </c>
       <c r="F23">
-        <v>22.24618226212976</v>
+        <v>22.23232735738968</v>
       </c>
       <c r="G23">
-        <v>15.12435733754074</v>
+        <v>15.14906135652553</v>
       </c>
       <c r="H23">
-        <v>7.767326416512678</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>14.84626286707122</v>
+      </c>
+      <c r="I23">
+        <v>7.759644654309136</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39712705493765</v>
+        <v>30.39649682374486</v>
       </c>
       <c r="C24">
-        <v>23.673199194196</v>
+        <v>23.67024584637492</v>
       </c>
       <c r="D24">
-        <v>4.029589359578472</v>
+        <v>4.032330967540113</v>
       </c>
       <c r="F24">
-        <v>20.42878186162036</v>
+        <v>20.41646109307175</v>
       </c>
       <c r="G24">
-        <v>13.99893691944303</v>
+        <v>13.69735968045584</v>
       </c>
       <c r="H24">
-        <v>8.145876289069859</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>14.02090626805112</v>
+      </c>
+      <c r="I24">
+        <v>8.139421561771016</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.50300270446132</v>
+        <v>27.50262305580334</v>
       </c>
       <c r="C25">
-        <v>21.41749094693683</v>
+        <v>21.41502435366772</v>
       </c>
       <c r="D25">
-        <v>3.872194789541376</v>
+        <v>3.874465798415653</v>
       </c>
       <c r="F25">
-        <v>18.87194648320766</v>
+        <v>18.86084037064476</v>
       </c>
       <c r="G25">
-        <v>13.2812165976526</v>
+        <v>12.2610735428401</v>
       </c>
       <c r="H25">
-        <v>8.764729508846342</v>
-      </c>
-      <c r="J25">
+        <v>13.30201305863877</v>
+      </c>
+      <c r="I25">
+        <v>8.759384198776241</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,700 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.1889933880228</v>
+        <v>20.16464817075849</v>
       </c>
       <c r="C2">
-        <v>19.61700626164038</v>
+        <v>13.57190677164471</v>
       </c>
       <c r="D2">
-        <v>3.760177969755632</v>
+        <v>2.865389064503995</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17.82600298248279</v>
+        <v>64.44387050164073</v>
       </c>
       <c r="G2">
-        <v>11.40109707933112</v>
+        <v>2.095277724039163</v>
       </c>
       <c r="H2">
-        <v>12.91193028102976</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.343309103018159</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>8.30280638577957</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.54571973771883</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.50414888604365</v>
+        <v>18.66799731235137</v>
       </c>
       <c r="C3">
-        <v>18.3103982493786</v>
+        <v>12.53526055260818</v>
       </c>
       <c r="D3">
-        <v>3.683967120060354</v>
+        <v>2.684205908420236</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.19511419653813</v>
+        <v>60.95621364886979</v>
       </c>
       <c r="G3">
-        <v>10.87392746681516</v>
+        <v>2.109889084457707</v>
       </c>
       <c r="H3">
-        <v>12.72824184617099</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.798103141433076</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>8.029489871174956</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.22791805280636</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.411168368497</v>
+        <v>17.7122046589737</v>
       </c>
       <c r="C4">
-        <v>17.46403544511807</v>
+        <v>11.87379638233033</v>
       </c>
       <c r="D4">
-        <v>3.637815614795862</v>
+        <v>2.571638337439224</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>16.84273902559205</v>
+        <v>58.77871458892241</v>
       </c>
       <c r="G4">
-        <v>10.57866366253627</v>
+        <v>2.118980811468503</v>
       </c>
       <c r="H4">
-        <v>12.65252512435882</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10.10133999903227</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.866171994123285</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.38444254901667</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.95095431042748</v>
+        <v>17.33624518893647</v>
       </c>
       <c r="C5">
-        <v>17.107962153356</v>
+        <v>11.59774898566072</v>
       </c>
       <c r="D5">
-        <v>3.619176342949506</v>
+        <v>2.525350712241306</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>16.70793505389767</v>
+        <v>57.88250083887247</v>
       </c>
       <c r="G5">
-        <v>10.46559586668412</v>
+        <v>2.12272187432126</v>
       </c>
       <c r="H5">
-        <v>12.63051864514205</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>10.2303220243623</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.80074343301446</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.03181687716913</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.87363824943464</v>
+        <v>17.27848455041097</v>
       </c>
       <c r="C6">
-        <v>17.0481593535857</v>
+        <v>11.55151351606299</v>
       </c>
       <c r="D6">
-        <v>3.616091651437166</v>
+        <v>2.51763733505625</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>16.68608054826614</v>
+        <v>57.73316009998408</v>
       </c>
       <c r="G6">
-        <v>10.44726122212142</v>
+        <v>2.123345415458796</v>
       </c>
       <c r="H6">
-        <v>12.62738399946139</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10.2520502051446</v>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.78994700057421</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.97271881987024</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.40502188810593</v>
+        <v>17.70686260770426</v>
       </c>
       <c r="C7">
-        <v>17.45927866112053</v>
+        <v>11.87010007332655</v>
       </c>
       <c r="D7">
-        <v>3.637563550213457</v>
+        <v>2.571015871833239</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>16.84088546844232</v>
+        <v>58.7666633980483</v>
       </c>
       <c r="G7">
-        <v>10.57710931601273</v>
+        <v>2.119031111248203</v>
       </c>
       <c r="H7">
-        <v>12.65219317616793</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10.10305832527544</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.865285048771546</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.37972328993271</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.62012664894137</v>
+        <v>19.65610250099094</v>
       </c>
       <c r="C8">
-        <v>19.17558659760649</v>
+        <v>13.21950766493763</v>
       </c>
       <c r="D8">
-        <v>3.73377053985112</v>
+        <v>2.803137832604236</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>17.60122221988311</v>
+        <v>63.24886092717102</v>
       </c>
       <c r="G8">
-        <v>11.21351061183038</v>
+        <v>2.100294492282096</v>
       </c>
       <c r="H8">
-        <v>12.84063594451831</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>9.494729008004702</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8.207625277883032</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.0982963244212</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.50544304493607</v>
+        <v>23.1991444361954</v>
       </c>
       <c r="C9">
-        <v>22.19572930924675</v>
+        <v>15.67968569345424</v>
       </c>
       <c r="D9">
-        <v>3.927338828583264</v>
+        <v>3.252205435515152</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>19.36789432131496</v>
+        <v>71.75641570380968</v>
       </c>
       <c r="G9">
-        <v>12.68077220349275</v>
+        <v>2.064202314260553</v>
       </c>
       <c r="H9">
-        <v>13.521884121939</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.527576959674271</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8.915751722486121</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.21013940945435</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08885153506314</v>
+        <v>25.65512648944271</v>
       </c>
       <c r="C10">
-        <v>24.21087234462038</v>
+        <v>17.39427928856805</v>
       </c>
       <c r="D10">
-        <v>4.072457407007565</v>
+        <v>3.585605317431377</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>20.8296740031692</v>
+        <v>77.86155098901355</v>
       </c>
       <c r="G10">
-        <v>14.08818939922305</v>
+        <v>2.037581547595731</v>
       </c>
       <c r="H10">
-        <v>14.23115681904931</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.016916232281094</v>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9.46161865486976</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.36256184664198</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.2072738501243</v>
+        <v>26.74736013828796</v>
       </c>
       <c r="C11">
-        <v>25.08509946656518</v>
+        <v>18.15997557394481</v>
       </c>
       <c r="D11">
-        <v>4.139142279753486</v>
+        <v>3.740052774923607</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>21.6828431850767</v>
+        <v>80.61968822572106</v>
       </c>
       <c r="G11">
-        <v>14.73984802641434</v>
+        <v>2.025309109762535</v>
       </c>
       <c r="H11">
-        <v>14.60176469315508</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>7.845783698738239</v>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>9.71681857063521</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.31929100130165</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.62280877567829</v>
+        <v>27.15809514021054</v>
       </c>
       <c r="C12">
-        <v>25.41019785329044</v>
+        <v>18.44848536776874</v>
       </c>
       <c r="D12">
-        <v>4.164497421220418</v>
+        <v>3.799149366660833</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>22.01650297155766</v>
+        <v>81.66291149147492</v>
       </c>
       <c r="G12">
-        <v>14.98823141702651</v>
+        <v>2.020624000313591</v>
       </c>
       <c r="H12">
-        <v>14.74914112424831</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.791527613790042</v>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9.814611058640887</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.67903956728409</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.53366813569279</v>
+        <v>27.06975041656001</v>
       </c>
       <c r="C13">
-        <v>25.34044420362816</v>
+        <v>18.38640267366223</v>
       </c>
       <c r="D13">
-        <v>4.159032008044381</v>
+        <v>3.786390869206449</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>21.94458223959259</v>
+        <v>81.43825965682396</v>
       </c>
       <c r="G13">
-        <v>14.93466544802916</v>
+        <v>2.021634965532097</v>
       </c>
       <c r="H13">
-        <v>14.71708622346932</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>7.80271390761484</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>9.793495162035839</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.60166211008334</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.24161916287704</v>
+        <v>26.78120436270011</v>
       </c>
       <c r="C14">
-        <v>25.11196386028714</v>
+        <v>18.18373640655246</v>
       </c>
       <c r="D14">
-        <v>4.141226145699951</v>
+        <v>3.744901084968881</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>21.71026612137249</v>
+        <v>80.70552890615639</v>
       </c>
       <c r="G14">
-        <v>14.76025021334309</v>
+        <v>2.024924513830947</v>
       </c>
       <c r="H14">
-        <v>14.61374777004576</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>7.841098003286387</v>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9.724839753461909</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23.34893433347209</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06169608897999</v>
+        <v>26.60411197222897</v>
       </c>
       <c r="C15">
-        <v>24.97124272740104</v>
+        <v>18.05942987569756</v>
       </c>
       <c r="D15">
-        <v>4.130333221873856</v>
+        <v>3.719573916979349</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>21.56691870653922</v>
+        <v>80.25660422580312</v>
       </c>
       <c r="G15">
-        <v>14.65362655167713</v>
+        <v>2.026934055741028</v>
       </c>
       <c r="H15">
-        <v>14.55136970669733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>7.866037885136386</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9.682942412825049</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23.19382246991356</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.01463226300187</v>
+        <v>25.58330188758332</v>
       </c>
       <c r="C16">
-        <v>24.15289780740037</v>
+        <v>17.34400128122894</v>
       </c>
       <c r="D16">
-        <v>4.068113360608573</v>
+        <v>3.575584846882043</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>20.78464220134639</v>
+        <v>77.68103541801278</v>
       </c>
       <c r="G16">
-        <v>14.04582768161509</v>
+        <v>2.038379140366257</v>
       </c>
       <c r="H16">
-        <v>14.20791449511725</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>8.029476771883013</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>9.445092040704504</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>22.29964133928149</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35787102114711</v>
+        <v>24.95113366633805</v>
       </c>
       <c r="C17">
-        <v>23.64009722372395</v>
+        <v>16.90184821310685</v>
       </c>
       <c r="D17">
-        <v>4.030118653440713</v>
+        <v>3.488101806798726</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>20.3938638469833</v>
+        <v>76.09705338824332</v>
       </c>
       <c r="G17">
-        <v>13.67584399370858</v>
+        <v>2.045349298810994</v>
       </c>
       <c r="H17">
-        <v>14.00961035488259</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.146596514833346</v>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>9.301041588999123</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>21.74579155416491</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.97476311653546</v>
+        <v>24.585122200826</v>
       </c>
       <c r="C18">
-        <v>23.3411401211204</v>
+        <v>16.64614622296547</v>
       </c>
       <c r="D18">
-        <v>4.008327523764808</v>
+        <v>3.43803094104303</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>20.17236536596736</v>
+        <v>75.18407236915212</v>
       </c>
       <c r="G18">
-        <v>13.46411081544515</v>
+        <v>2.04934406463836</v>
       </c>
       <c r="H18">
-        <v>13.90005968777607</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>8.219600045254364</v>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>9.218822691597998</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>21.42507404199702</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.84412424491619</v>
+        <v>24.46076423772531</v>
       </c>
       <c r="C19">
-        <v>23.23922556926492</v>
+        <v>16.55931501517575</v>
       </c>
       <c r="D19">
-        <v>4.000959997343687</v>
+        <v>3.421114491809536</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>20.09793294192322</v>
+        <v>74.87458445236747</v>
       </c>
       <c r="G19">
-        <v>13.39260770891124</v>
+        <v>2.050694565027137</v>
       </c>
       <c r="H19">
-        <v>13.86373718858764</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>8.245235963322203</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>9.191089723003266</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>21.31609539387219</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42833748142678</v>
+        <v>25.01867318653101</v>
       </c>
       <c r="C20">
-        <v>23.69509943611759</v>
+        <v>16.94905570325482</v>
       </c>
       <c r="D20">
-        <v>4.034156757604227</v>
+        <v>3.497387563492251</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>20.43512522519338</v>
+        <v>76.26585974155398</v>
       </c>
       <c r="G20">
-        <v>13.71511891219656</v>
+        <v>2.044608887548461</v>
       </c>
       <c r="H20">
-        <v>14.03025241544791</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>8.13353313841702</v>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>9.316309255708932</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>21.80496862496374</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32761630533421</v>
+        <v>26.86602866830751</v>
       </c>
       <c r="C21">
-        <v>25.17923431222637</v>
+        <v>18.24329805118769</v>
       </c>
       <c r="D21">
-        <v>4.146453290591259</v>
+        <v>3.7570691694933</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>21.77905325634874</v>
+        <v>80.92076835491444</v>
       </c>
       <c r="G21">
-        <v>14.81143622863569</v>
+        <v>2.023959449443885</v>
       </c>
       <c r="H21">
-        <v>14.64390890695414</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>7.829522620180105</v>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>9.74497261043884</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>23.42322954926358</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.52244236363214</v>
+        <v>28.05711010345803</v>
       </c>
       <c r="C22">
-        <v>26.11459008158547</v>
+        <v>19.08113367079597</v>
       </c>
       <c r="D22">
-        <v>4.220452012771656</v>
+        <v>3.930477492307931</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>22.75276193291545</v>
+        <v>83.95696104950288</v>
       </c>
       <c r="G22">
-        <v>15.53739355388419</v>
+        <v>2.010234511784731</v>
       </c>
       <c r="H22">
-        <v>15.16405869354409</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.693225811888797</v>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10.03197355475677</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>24.46645032421609</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.88892966729004</v>
+        <v>27.42261384174766</v>
       </c>
       <c r="C23">
-        <v>25.6184848352963</v>
+        <v>18.63446235213182</v>
       </c>
       <c r="D23">
-        <v>4.180898782541687</v>
+        <v>3.837506786892779</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>22.23232735738968</v>
+        <v>82.33640828748685</v>
       </c>
       <c r="G23">
-        <v>15.14906135652553</v>
+        <v>2.017586333925495</v>
       </c>
       <c r="H23">
-        <v>14.84626286707122</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>7.759644654309136</v>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>9.878099907589812</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>23.91071953687928</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39649682374486</v>
+        <v>24.98814662567932</v>
       </c>
       <c r="C24">
-        <v>23.67024584637492</v>
+        <v>16.92771792069513</v>
       </c>
       <c r="D24">
-        <v>4.032330967540113</v>
+        <v>3.493188789562822</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>20.41646109307175</v>
+        <v>76.18954975132016</v>
       </c>
       <c r="G24">
-        <v>13.69735968045584</v>
+        <v>2.044943665274353</v>
       </c>
       <c r="H24">
-        <v>14.02090626805112</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>8.139421561771016</v>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>9.30940489374303</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>21.77822189062926</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.50262305580334</v>
+        <v>22.26847135738294</v>
       </c>
       <c r="C25">
-        <v>21.41502435366772</v>
+        <v>15.03216454510415</v>
       </c>
       <c r="D25">
-        <v>3.874465798415653</v>
+        <v>3.130704399379199</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>18.86084037064476</v>
+        <v>69.48343392099322</v>
       </c>
       <c r="G25">
-        <v>12.2610735428401</v>
+        <v>2.073943406652428</v>
       </c>
       <c r="H25">
-        <v>13.30201305863877</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>8.759384198776241</v>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>8.720011608759668</v>
       </c>
       <c r="K25">
+        <v>19.39375173542946</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.16464817075849</v>
+        <v>11.23324452242002</v>
       </c>
       <c r="C2">
-        <v>13.57190677164471</v>
+        <v>9.804377262152874</v>
       </c>
       <c r="D2">
-        <v>2.865389064503995</v>
+        <v>2.655744456398025</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.44387050164073</v>
+        <v>45.00052850457975</v>
       </c>
       <c r="G2">
-        <v>2.095277724039163</v>
+        <v>2.147984324575194</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.73095797348115</v>
       </c>
       <c r="J2">
-        <v>8.30280638577957</v>
+        <v>7.147625431682664</v>
       </c>
       <c r="K2">
-        <v>17.54571973771883</v>
+        <v>10.92963016922194</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.69115545130665</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.66799731235137</v>
+        <v>10.43472768792472</v>
       </c>
       <c r="C3">
-        <v>12.53526055260818</v>
+        <v>9.240741212147867</v>
       </c>
       <c r="D3">
-        <v>2.684205908420236</v>
+        <v>2.509682185870404</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.95621364886979</v>
+        <v>43.6107847518177</v>
       </c>
       <c r="G3">
-        <v>2.109889084457707</v>
+        <v>2.156847397276281</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.03794027188242</v>
       </c>
       <c r="J3">
-        <v>8.029489871174956</v>
+        <v>7.07971513712721</v>
       </c>
       <c r="K3">
-        <v>16.22791805280636</v>
+        <v>10.2476185433466</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.29613934408104</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.7122046589737</v>
+        <v>9.91851245206219</v>
       </c>
       <c r="C4">
-        <v>11.87379638233033</v>
+        <v>8.885648004375355</v>
       </c>
       <c r="D4">
-        <v>2.571638337439224</v>
+        <v>2.415333734075168</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.77871458892241</v>
+        <v>42.76113239175138</v>
       </c>
       <c r="G4">
-        <v>2.118980811468503</v>
+        <v>2.162427318344122</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.61822843121885</v>
       </c>
       <c r="J4">
-        <v>7.866171994123285</v>
+        <v>7.041226735288995</v>
       </c>
       <c r="K4">
-        <v>15.38444254901667</v>
+        <v>9.893819796661504</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.0561123886784</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.33624518893647</v>
+        <v>9.701555705827991</v>
       </c>
       <c r="C5">
-        <v>11.59774898566072</v>
+        <v>8.738810044986502</v>
       </c>
       <c r="D5">
-        <v>2.525350712241306</v>
+        <v>2.375713113608373</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.88250083887247</v>
+        <v>42.4160892146624</v>
       </c>
       <c r="G5">
-        <v>2.12272187432126</v>
+        <v>2.164737558879754</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.44871937780265</v>
       </c>
       <c r="J5">
-        <v>7.80074343301446</v>
+        <v>7.026333949995191</v>
       </c>
       <c r="K5">
-        <v>15.03181687716913</v>
+        <v>9.748154907909742</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.95905373618819</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.27848455041097</v>
+        <v>9.66512974007286</v>
       </c>
       <c r="C6">
-        <v>11.55151351606299</v>
+        <v>8.714303379651454</v>
       </c>
       <c r="D6">
-        <v>2.51763733505625</v>
+        <v>2.369063360020517</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>57.73316009998408</v>
+        <v>42.3588759490061</v>
       </c>
       <c r="G6">
-        <v>2.123345415458796</v>
+        <v>2.165123416944421</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.42066680714492</v>
       </c>
       <c r="J6">
-        <v>7.78994700057421</v>
+        <v>7.023908366570251</v>
       </c>
       <c r="K6">
-        <v>14.97271881987024</v>
+        <v>9.723883394383824</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.94298651162689</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.70686260770426</v>
+        <v>9.915613297861068</v>
       </c>
       <c r="C7">
-        <v>11.87010007332655</v>
+        <v>8.883676137127287</v>
       </c>
       <c r="D7">
-        <v>2.571015871833239</v>
+        <v>2.414804143190415</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58.7666633980483</v>
+        <v>42.75647378668747</v>
       </c>
       <c r="G7">
-        <v>2.119031111248203</v>
+        <v>2.162458325612217</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.61593609785675</v>
       </c>
       <c r="J7">
-        <v>7.865285048771546</v>
+        <v>7.041022701522673</v>
       </c>
       <c r="K7">
-        <v>15.37972328993271</v>
+        <v>9.891861073753265</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.05480019996638</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.65610250099094</v>
+        <v>10.96324876916664</v>
       </c>
       <c r="C8">
-        <v>13.21950766493763</v>
+        <v>9.61197633463507</v>
       </c>
       <c r="D8">
-        <v>2.803137832604236</v>
+        <v>2.606349992989191</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>63.24886092717102</v>
+        <v>44.52074410030806</v>
       </c>
       <c r="G8">
-        <v>2.100294492282096</v>
+        <v>2.151012729632796</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.49083951358564</v>
       </c>
       <c r="J8">
-        <v>8.207625277883032</v>
+        <v>7.123534820004637</v>
       </c>
       <c r="K8">
-        <v>17.0982963244212</v>
+        <v>10.66933357015663</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.55450213138593</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.1991444361954</v>
+        <v>12.81566244597993</v>
       </c>
       <c r="C9">
-        <v>15.67968569345424</v>
+        <v>10.96453984739263</v>
       </c>
       <c r="D9">
-        <v>3.252205435515152</v>
+        <v>2.945061357919914</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.75641570380968</v>
+        <v>47.99896896951447</v>
       </c>
       <c r="G9">
-        <v>2.064202314260553</v>
+        <v>2.12958009206569</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.25006372652826</v>
       </c>
       <c r="J9">
-        <v>8.915751722486121</v>
+        <v>7.311492230831726</v>
       </c>
       <c r="K9">
-        <v>20.21013940945435</v>
+        <v>12.45610500753507</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.54960163182963</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.65512648944271</v>
+        <v>14.05900054124367</v>
       </c>
       <c r="C10">
-        <v>17.39427928856805</v>
+        <v>11.90901308877892</v>
       </c>
       <c r="D10">
-        <v>3.585605317431377</v>
+        <v>3.171720824997784</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.86155098901355</v>
+        <v>50.55465351589768</v>
       </c>
       <c r="G10">
-        <v>2.037581547595731</v>
+        <v>2.114324982928418</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>32.56674009871514</v>
       </c>
       <c r="J10">
-        <v>9.46161865486976</v>
+        <v>7.466518134050343</v>
       </c>
       <c r="K10">
-        <v>22.36256184664198</v>
+        <v>13.65677044064246</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.28464349674725</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.74736013828796</v>
+        <v>14.600414434669</v>
       </c>
       <c r="C11">
-        <v>18.15997557394481</v>
+        <v>12.35276871051746</v>
       </c>
       <c r="D11">
-        <v>3.740052774923607</v>
+        <v>3.270120138804099</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.61968822572106</v>
+        <v>51.71599122024977</v>
       </c>
       <c r="G11">
-        <v>2.025309109762535</v>
+        <v>2.107460621342793</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>33.17082326839571</v>
       </c>
       <c r="J11">
-        <v>9.71681857063521</v>
+        <v>7.540953206070261</v>
       </c>
       <c r="K11">
-        <v>23.31929100130165</v>
+        <v>14.18001045348593</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.61911055822284</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.15809514021054</v>
+        <v>14.80207575260415</v>
       </c>
       <c r="C12">
-        <v>18.44848536776874</v>
+        <v>12.52450479532294</v>
       </c>
       <c r="D12">
-        <v>3.799149366660833</v>
+        <v>3.306714845102872</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.66291149147492</v>
+        <v>52.15553563638687</v>
       </c>
       <c r="G12">
-        <v>2.020624000313591</v>
+        <v>2.104869203207028</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>33.40032348917968</v>
       </c>
       <c r="J12">
-        <v>9.814611058640887</v>
+        <v>7.569723591170163</v>
       </c>
       <c r="K12">
-        <v>23.67903956728409</v>
+        <v>14.37497058392851</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.78750531958998</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.06975041656001</v>
+        <v>14.75879184742476</v>
       </c>
       <c r="C13">
-        <v>18.38640267366223</v>
+        <v>12.48762034180239</v>
       </c>
       <c r="D13">
-        <v>3.786390869206449</v>
+        <v>3.29886300438714</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.43825965682396</v>
+        <v>52.06088218476507</v>
       </c>
       <c r="G13">
-        <v>2.021634965532097</v>
+        <v>2.105427005880165</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33.35086283755196</v>
       </c>
       <c r="J13">
-        <v>9.793495162035839</v>
+        <v>7.563501068181666</v>
       </c>
       <c r="K13">
-        <v>23.60166211008334</v>
+        <v>14.33312180883693</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.74759826065408</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.78120436270011</v>
+        <v>14.61707186844931</v>
       </c>
       <c r="C14">
-        <v>18.18373640655246</v>
+        <v>12.3669436441059</v>
       </c>
       <c r="D14">
-        <v>3.744901084968881</v>
+        <v>3.273144110270249</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.70552890615639</v>
+        <v>51.75215745328948</v>
       </c>
       <c r="G14">
-        <v>2.024924513830947</v>
+        <v>2.107247281586961</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.18968926449618</v>
       </c>
       <c r="J14">
-        <v>9.724839753461909</v>
+        <v>7.543308342295011</v>
       </c>
       <c r="K14">
-        <v>23.34893433347209</v>
+        <v>14.19611293504856</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.62952899819077</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.60411197222897</v>
+        <v>14.52983033854859</v>
       </c>
       <c r="C15">
-        <v>18.05942987569756</v>
+        <v>12.29272535614411</v>
       </c>
       <c r="D15">
-        <v>3.719573916979349</v>
+        <v>3.257304015588009</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.25660422580312</v>
+        <v>51.56302442241197</v>
       </c>
       <c r="G15">
-        <v>2.026934055741028</v>
+        <v>2.108363200605739</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>33.09106384043221</v>
       </c>
       <c r="J15">
-        <v>9.682942412825049</v>
+        <v>7.531016353281241</v>
       </c>
       <c r="K15">
-        <v>23.19382246991356</v>
+        <v>14.11178073329385</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.57504665264291</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.58330188758332</v>
+        <v>14.02314099574946</v>
       </c>
       <c r="C16">
-        <v>17.34400128122894</v>
+        <v>11.88142246060227</v>
       </c>
       <c r="D16">
-        <v>3.575584846882043</v>
+        <v>3.165196271455594</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.68103541801278</v>
+        <v>50.47872659138669</v>
       </c>
       <c r="G16">
-        <v>2.038379140366257</v>
+        <v>2.114774862153987</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>32.52736522118324</v>
       </c>
       <c r="J16">
-        <v>9.445092040704504</v>
+        <v>7.461734087203337</v>
       </c>
       <c r="K16">
-        <v>22.29964133928149</v>
+        <v>13.62212375429688</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.2627831559327</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95113366633805</v>
+        <v>13.70618922789574</v>
       </c>
       <c r="C17">
-        <v>16.90184821310685</v>
+        <v>11.63842498616566</v>
       </c>
       <c r="D17">
-        <v>3.488101806798726</v>
+        <v>3.10749174750434</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.09705338824332</v>
+        <v>49.81317010400851</v>
       </c>
       <c r="G17">
-        <v>2.045349298810994</v>
+        <v>2.118725544970377</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>32.18286563519138</v>
       </c>
       <c r="J17">
-        <v>9.301041588999123</v>
+        <v>7.420247923889132</v>
       </c>
       <c r="K17">
-        <v>21.74579155416491</v>
+        <v>13.31593988407269</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.07120754290145</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.585122200826</v>
+        <v>13.52160275819621</v>
       </c>
       <c r="C18">
-        <v>16.64614622296547</v>
+        <v>11.49764457726316</v>
       </c>
       <c r="D18">
-        <v>3.43803094104303</v>
+        <v>3.073857663461687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.18407236915212</v>
+        <v>49.43024070641746</v>
       </c>
       <c r="G18">
-        <v>2.04934406463836</v>
+        <v>2.121005144987075</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>31.98519846780902</v>
       </c>
       <c r="J18">
-        <v>9.218822691597998</v>
+        <v>7.396753129482462</v>
       </c>
       <c r="K18">
-        <v>21.42507404199702</v>
+        <v>13.13766319172139</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.96102828112146</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.46076423772531</v>
+        <v>13.45870921719776</v>
       </c>
       <c r="C19">
-        <v>16.55931501517575</v>
+        <v>11.44980408967882</v>
       </c>
       <c r="D19">
-        <v>3.421114491809536</v>
+        <v>3.062393204643005</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.87458445236747</v>
+        <v>49.30056941631997</v>
       </c>
       <c r="G19">
-        <v>2.050694565027137</v>
+        <v>2.121778309593813</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>31.91835426296277</v>
       </c>
       <c r="J19">
-        <v>9.191089723003266</v>
+        <v>7.388860624953181</v>
       </c>
       <c r="K19">
-        <v>21.31609539387219</v>
+        <v>13.0769259346973</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.92372678043854</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.01867318653101</v>
+        <v>13.74016487024375</v>
       </c>
       <c r="C20">
-        <v>16.94905570325482</v>
+        <v>11.66439738849931</v>
       </c>
       <c r="D20">
-        <v>3.497387563492251</v>
+        <v>3.113680372907996</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.26585974155398</v>
+        <v>49.88403257604844</v>
       </c>
       <c r="G20">
-        <v>2.044608887548461</v>
+        <v>2.118304255193165</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>32.2194885410546</v>
       </c>
       <c r="J20">
-        <v>9.316309255708932</v>
+        <v>7.424626076140113</v>
       </c>
       <c r="K20">
-        <v>21.80496862496374</v>
+        <v>13.34875720165157</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.0916004273227</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86602866830751</v>
+        <v>14.65878867164133</v>
       </c>
       <c r="C21">
-        <v>18.24329805118769</v>
+        <v>12.40245172566221</v>
       </c>
       <c r="D21">
-        <v>3.7570691694933</v>
+        <v>3.280716385039921</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.92076835491444</v>
+        <v>51.84284368815027</v>
       </c>
       <c r="G21">
-        <v>2.023959449443885</v>
+        <v>2.106712430540775</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.23700936162995</v>
       </c>
       <c r="J21">
-        <v>9.74497261043884</v>
+        <v>7.549223423319075</v>
       </c>
       <c r="K21">
-        <v>23.42322954926358</v>
+        <v>14.23644104061047</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.65565358374623</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.05711010345803</v>
+        <v>15.23963797570732</v>
       </c>
       <c r="C22">
-        <v>19.08113367079597</v>
+        <v>12.89808811577327</v>
       </c>
       <c r="D22">
-        <v>3.930477492307931</v>
+        <v>3.386002317589907</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.95696104950288</v>
+        <v>53.12172725986832</v>
       </c>
       <c r="G22">
-        <v>2.010234511784731</v>
+        <v>2.099181387655888</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>33.90639653015932</v>
       </c>
       <c r="J22">
-        <v>10.03197355475677</v>
+        <v>7.634067272592328</v>
       </c>
       <c r="K22">
-        <v>24.46645032421609</v>
+        <v>14.79812495118744</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.19100792290256</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.42261384174766</v>
+        <v>14.93137259320304</v>
       </c>
       <c r="C23">
-        <v>18.63446235213182</v>
+        <v>12.63476154695987</v>
       </c>
       <c r="D23">
-        <v>3.837506786892779</v>
+        <v>3.330160617227571</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.33640828748685</v>
+        <v>52.43928308691299</v>
       </c>
       <c r="G23">
-        <v>2.017586333925495</v>
+        <v>2.103197764663991</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.54872092203986</v>
       </c>
       <c r="J23">
-        <v>9.878099907589812</v>
+        <v>7.588464753192893</v>
       </c>
       <c r="K23">
-        <v>23.91071953687928</v>
+        <v>14.49999093330266</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.90672306211393</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.98814662567932</v>
+        <v>13.72481186277117</v>
       </c>
       <c r="C24">
-        <v>16.92771792069513</v>
+        <v>11.65265862457361</v>
       </c>
       <c r="D24">
-        <v>3.493188789562822</v>
+        <v>3.110883925749529</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.18954975132016</v>
+        <v>49.85199655782264</v>
       </c>
       <c r="G24">
-        <v>2.044943665274353</v>
+        <v>2.118494694237495</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>32.20293011028023</v>
       </c>
       <c r="J24">
-        <v>9.30940489374303</v>
+        <v>7.422645605702768</v>
       </c>
       <c r="K24">
-        <v>21.77822189062926</v>
+        <v>13.33392750183106</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.0823809251231</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.26847135738294</v>
+        <v>12.33561541894558</v>
       </c>
       <c r="C25">
-        <v>15.03216454510415</v>
+        <v>10.60717014479815</v>
       </c>
       <c r="D25">
-        <v>3.130704399379199</v>
+        <v>2.857357632581296</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.48343392099322</v>
+        <v>47.05734056909802</v>
       </c>
       <c r="G25">
-        <v>2.073943406652428</v>
+        <v>2.135282124563768</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.76978268343553</v>
       </c>
       <c r="J25">
-        <v>8.720011608759668</v>
+        <v>7.257744948162825</v>
       </c>
       <c r="K25">
-        <v>19.39375173542946</v>
+        <v>11.99285196940571</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.27938319733099</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.23324452242002</v>
+        <v>11.7268139522358</v>
       </c>
       <c r="C2">
-        <v>9.804377262152874</v>
+        <v>9.909499752752273</v>
       </c>
       <c r="D2">
-        <v>2.655744456398025</v>
+        <v>6.200105789641675</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.00052850457975</v>
+        <v>50.82474115624333</v>
       </c>
       <c r="G2">
-        <v>2.147984324575194</v>
+        <v>3.746847011814705</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.73095797348115</v>
+        <v>34.55137006959226</v>
       </c>
       <c r="J2">
-        <v>7.147625431682664</v>
+        <v>11.28123371207078</v>
       </c>
       <c r="K2">
-        <v>10.92963016922194</v>
+        <v>13.34476527065363</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.69115545130665</v>
+        <v>17.52028713280054</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.43472768792472</v>
+        <v>11.63025426801422</v>
       </c>
       <c r="C3">
-        <v>9.240741212147867</v>
+        <v>9.802888649705475</v>
       </c>
       <c r="D3">
-        <v>2.509682185870404</v>
+        <v>6.2305438245558</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.6107847518177</v>
+        <v>50.54717205241624</v>
       </c>
       <c r="G3">
-        <v>2.156847397276281</v>
+        <v>3.749938806359614</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.03794027188242</v>
+        <v>34.40850612635186</v>
       </c>
       <c r="J3">
-        <v>7.07971513712721</v>
+        <v>11.29199934311104</v>
       </c>
       <c r="K3">
-        <v>10.2476185433466</v>
+        <v>13.28843043936431</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.29613934408104</v>
+        <v>17.51878735781905</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.91851245206219</v>
+        <v>11.57483388182553</v>
       </c>
       <c r="C4">
-        <v>8.885648004375355</v>
+        <v>9.739888868531974</v>
       </c>
       <c r="D4">
-        <v>2.415333734075168</v>
+        <v>6.250861242848331</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.76113239175138</v>
+        <v>50.38344539638445</v>
       </c>
       <c r="G4">
-        <v>2.162427318344122</v>
+        <v>3.751935838986771</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.61822843121885</v>
+        <v>34.32428382170799</v>
       </c>
       <c r="J4">
-        <v>7.041226735288995</v>
+        <v>11.30005132815327</v>
       </c>
       <c r="K4">
-        <v>9.893819796661504</v>
+        <v>13.25773267807585</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.0561123886784</v>
+        <v>17.52192639610523</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.701555705827991</v>
+        <v>11.55324927226296</v>
       </c>
       <c r="C5">
-        <v>8.738810044986502</v>
+        <v>9.714863554025175</v>
       </c>
       <c r="D5">
-        <v>2.375713113608373</v>
+        <v>6.259550371940671</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.4160892146624</v>
+        <v>50.31844795080115</v>
       </c>
       <c r="G5">
-        <v>2.164737558879754</v>
+        <v>3.752774543372936</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.44871937780265</v>
+        <v>34.29085570904437</v>
       </c>
       <c r="J5">
-        <v>7.026333949995191</v>
+        <v>11.30369521226023</v>
       </c>
       <c r="K5">
-        <v>9.748154907909742</v>
+        <v>13.24621296884049</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.95905373618819</v>
+        <v>17.52422770922233</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.66512974007286</v>
+        <v>11.54972629059011</v>
       </c>
       <c r="C6">
-        <v>8.714303379651454</v>
+        <v>9.710748053830429</v>
       </c>
       <c r="D6">
-        <v>2.369063360020517</v>
+        <v>6.26101793948924</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.3588759490061</v>
+        <v>50.30776024721271</v>
       </c>
       <c r="G6">
-        <v>2.165123416944421</v>
+        <v>3.752915315951314</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.42066680714492</v>
+        <v>34.28535932567953</v>
       </c>
       <c r="J6">
-        <v>7.023908366570251</v>
+        <v>11.3043221797579</v>
       </c>
       <c r="K6">
-        <v>9.723883394383824</v>
+        <v>13.24436021490056</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.94298651162689</v>
+        <v>17.52467159950874</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.915613297861068</v>
+        <v>11.57453870250024</v>
       </c>
       <c r="C7">
-        <v>8.883676137127287</v>
+        <v>9.739548708960044</v>
       </c>
       <c r="D7">
-        <v>2.414804143190415</v>
+        <v>6.250976768759175</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.75647378668747</v>
+        <v>50.38256179663367</v>
       </c>
       <c r="G7">
-        <v>2.162458325612217</v>
+        <v>3.75194704912166</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.61593609785675</v>
+        <v>34.32382936468663</v>
       </c>
       <c r="J7">
-        <v>7.041022701522673</v>
+        <v>11.30009900250112</v>
       </c>
       <c r="K7">
-        <v>9.891861073753265</v>
+        <v>13.25757329758272</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.05480019996638</v>
+        <v>17.5219532926701</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.96324876916664</v>
+        <v>11.69273433958391</v>
       </c>
       <c r="C8">
-        <v>9.61197633463507</v>
+        <v>9.872247562184764</v>
       </c>
       <c r="D8">
-        <v>2.606349992989191</v>
+        <v>6.210262958394383</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.52074410030806</v>
+        <v>50.72766743802439</v>
       </c>
       <c r="G8">
-        <v>2.151012729632796</v>
+        <v>3.747892639694648</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.49083951358564</v>
+        <v>34.50139345859762</v>
       </c>
       <c r="J8">
-        <v>7.123534820004637</v>
+        <v>11.28464650297192</v>
       </c>
       <c r="K8">
-        <v>10.66933357015663</v>
+        <v>13.32454037052882</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.55450213138593</v>
+        <v>17.51892828130674</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.81566244597993</v>
+        <v>11.95391327941783</v>
       </c>
       <c r="C9">
-        <v>10.96453984739263</v>
+        <v>10.15064581834924</v>
       </c>
       <c r="D9">
-        <v>2.945061357919914</v>
+        <v>6.143336359493149</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.99896896951447</v>
+        <v>51.45585340878589</v>
       </c>
       <c r="G9">
-        <v>2.12958009206569</v>
+        <v>3.740720705043262</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.25006372652826</v>
+        <v>34.87669227022515</v>
       </c>
       <c r="J9">
-        <v>7.311492230831726</v>
+        <v>11.26578057410915</v>
       </c>
       <c r="K9">
-        <v>12.45610500753507</v>
+        <v>13.48618604742958</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.54960163182963</v>
+        <v>17.54513293732375</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.05900054124367</v>
+        <v>12.16187044770434</v>
       </c>
       <c r="C10">
-        <v>11.90901308877892</v>
+        <v>10.36439599058239</v>
       </c>
       <c r="D10">
-        <v>3.171720824997784</v>
+        <v>6.102027570888147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.55465351589768</v>
+        <v>52.01973410704878</v>
       </c>
       <c r="G10">
-        <v>2.114324982928418</v>
+        <v>3.735920548279336</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.56674009871514</v>
+        <v>35.16801967089869</v>
       </c>
       <c r="J10">
-        <v>7.466518134050343</v>
+        <v>11.25888496680118</v>
       </c>
       <c r="K10">
-        <v>13.65677044064246</v>
+        <v>13.6225937016153</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.28464349674725</v>
+        <v>17.5838403845809</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.600414434669</v>
+        <v>12.2595419287212</v>
       </c>
       <c r="C11">
-        <v>12.35276871051746</v>
+        <v>10.46322536962601</v>
       </c>
       <c r="D11">
-        <v>3.270120138804099</v>
+        <v>6.084940071573271</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.71599122024977</v>
+        <v>52.28196053137268</v>
       </c>
       <c r="G11">
-        <v>2.107460621342793</v>
+        <v>3.733837473165198</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.17082326839571</v>
+        <v>35.30372277087739</v>
       </c>
       <c r="J11">
-        <v>7.540953206070261</v>
+        <v>11.25725790323715</v>
       </c>
       <c r="K11">
-        <v>14.18001045348593</v>
+        <v>13.68827605884849</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.61911055822284</v>
+        <v>17.6056325095603</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.80207575260415</v>
+        <v>12.29693235967632</v>
       </c>
       <c r="C12">
-        <v>12.52450479532294</v>
+        <v>10.50084380353529</v>
       </c>
       <c r="D12">
-        <v>3.306714845102872</v>
+        <v>6.078714343019469</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.15553563638687</v>
+        <v>52.38202957931384</v>
       </c>
       <c r="G12">
-        <v>2.104869203207028</v>
+        <v>3.733063031741848</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.40032348917968</v>
+        <v>35.35554699956281</v>
       </c>
       <c r="J12">
-        <v>7.569723591170163</v>
+        <v>11.25685853824882</v>
       </c>
       <c r="K12">
-        <v>14.37497058392851</v>
+        <v>13.71365131535275</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.78750531958998</v>
+        <v>17.61448172996833</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.75879184742476</v>
+        <v>12.28886227554701</v>
       </c>
       <c r="C13">
-        <v>12.48762034180239</v>
+        <v>10.49273393696941</v>
       </c>
       <c r="D13">
-        <v>3.29886300438714</v>
+        <v>6.08004427328719</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>52.06088218476507</v>
+        <v>52.36044453680652</v>
       </c>
       <c r="G13">
-        <v>2.105427005880165</v>
+        <v>3.73322918360244</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.35086283755196</v>
+        <v>35.3443666484302</v>
       </c>
       <c r="J13">
-        <v>7.563501068181666</v>
+        <v>11.25693491383536</v>
       </c>
       <c r="K13">
-        <v>14.33312180883693</v>
+        <v>13.70816425468289</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.74759826065408</v>
+        <v>17.61254941966722</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.61707186844931</v>
+        <v>12.26261017307966</v>
       </c>
       <c r="C14">
-        <v>12.3669436441059</v>
+        <v>10.46631657632485</v>
       </c>
       <c r="D14">
-        <v>3.273144110270249</v>
+        <v>6.084422968906646</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.75215745328948</v>
+        <v>52.29017815211535</v>
       </c>
       <c r="G14">
-        <v>2.107247281586961</v>
+        <v>3.733773471806644</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.18968926449618</v>
+        <v>35.30797775473803</v>
       </c>
       <c r="J14">
-        <v>7.543308342295011</v>
+        <v>11.25722070502538</v>
       </c>
       <c r="K14">
-        <v>14.19611293504856</v>
+        <v>13.69035373351242</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.62952899819077</v>
+        <v>17.6063486038109</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.52983033854859</v>
+        <v>12.24658154807285</v>
       </c>
       <c r="C15">
-        <v>12.29272535614411</v>
+        <v>10.45015938683919</v>
       </c>
       <c r="D15">
-        <v>3.257304015588009</v>
+        <v>6.087136940968232</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.56302442241197</v>
+        <v>52.24723661434337</v>
       </c>
       <c r="G15">
-        <v>2.108363200605739</v>
+        <v>3.734108733480042</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.09106384043221</v>
+        <v>35.28574472098253</v>
       </c>
       <c r="J15">
-        <v>7.531016353281241</v>
+        <v>11.25742397899011</v>
       </c>
       <c r="K15">
-        <v>14.11178073329385</v>
+        <v>13.67950916477618</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.57504665264291</v>
+        <v>17.60262802650287</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.02314099574946</v>
+        <v>12.15554601103503</v>
       </c>
       <c r="C16">
-        <v>11.88142246060227</v>
+        <v>10.35796630763528</v>
       </c>
       <c r="D16">
-        <v>3.165196271455594</v>
+        <v>6.103178560627223</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.47872659138669</v>
+        <v>52.0027075589628</v>
       </c>
       <c r="G16">
-        <v>2.114774862153987</v>
+        <v>3.736058698102728</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.52736522118324</v>
+        <v>35.15921335290916</v>
       </c>
       <c r="J16">
-        <v>7.461734087203337</v>
+        <v>11.2590216526361</v>
       </c>
       <c r="K16">
-        <v>13.62212375429688</v>
+        <v>13.61837262856563</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.2627831559327</v>
+        <v>17.58250002738321</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.70618922789574</v>
+        <v>12.10045887614418</v>
       </c>
       <c r="C17">
-        <v>11.63842498616566</v>
+        <v>10.30179185910442</v>
       </c>
       <c r="D17">
-        <v>3.10749174750434</v>
+        <v>6.113455956981382</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.81317010400851</v>
+        <v>51.85412387509862</v>
       </c>
       <c r="G17">
-        <v>2.118725544970377</v>
+        <v>3.737280629342404</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.18286563519138</v>
+        <v>35.0823898445996</v>
       </c>
       <c r="J17">
-        <v>7.420247923889132</v>
+        <v>11.26038824624236</v>
       </c>
       <c r="K17">
-        <v>13.31593988407269</v>
+        <v>13.58178369359662</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.07120754290145</v>
+        <v>17.57122065360262</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.52160275819621</v>
+        <v>12.06906551942683</v>
       </c>
       <c r="C18">
-        <v>11.49764457726316</v>
+        <v>10.26963388889563</v>
       </c>
       <c r="D18">
-        <v>3.073857663461687</v>
+        <v>6.119527646466423</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.43024070641746</v>
+        <v>51.769203546152</v>
       </c>
       <c r="G18">
-        <v>2.121005144987075</v>
+        <v>3.737992920173671</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.98519846780902</v>
+        <v>35.03850328441062</v>
       </c>
       <c r="J18">
-        <v>7.396753129482462</v>
+        <v>11.26131640682217</v>
       </c>
       <c r="K18">
-        <v>13.13766319172139</v>
+        <v>13.56108157819531</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.96102828112146</v>
+        <v>17.56512718147389</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.45870921719776</v>
+        <v>12.05848742368636</v>
       </c>
       <c r="C19">
-        <v>11.44980408967882</v>
+        <v>10.25877294799096</v>
       </c>
       <c r="D19">
-        <v>3.062393204643005</v>
+        <v>6.121610968605211</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.30056941631997</v>
+        <v>51.74054547499022</v>
       </c>
       <c r="G19">
-        <v>2.121778309593813</v>
+        <v>3.738235718355454</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.91835426296277</v>
+        <v>35.02369623307951</v>
       </c>
       <c r="J19">
-        <v>7.388860624953181</v>
+        <v>11.26165508655604</v>
       </c>
       <c r="K19">
-        <v>13.0769259346973</v>
+        <v>13.55413165469216</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.92372678043854</v>
+        <v>17.5631318588972</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.74016487024375</v>
+        <v>12.10629311428009</v>
       </c>
       <c r="C20">
-        <v>11.66439738849931</v>
+        <v>10.30775624010259</v>
       </c>
       <c r="D20">
-        <v>3.113680372907996</v>
+        <v>6.112345310262349</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.88403257604844</v>
+        <v>51.86988523555558</v>
       </c>
       <c r="G20">
-        <v>2.118304255193165</v>
+        <v>3.737149573352592</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.2194885410546</v>
+        <v>35.09053690486193</v>
       </c>
       <c r="J20">
-        <v>7.424626076140113</v>
+        <v>11.2602280621424</v>
       </c>
       <c r="K20">
-        <v>13.34875720165157</v>
+        <v>13.58564329818422</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.0916004273227</v>
+        <v>17.57238060338089</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.65878867164133</v>
+        <v>12.27031037697351</v>
       </c>
       <c r="C21">
-        <v>12.40245172566221</v>
+        <v>10.4740710135363</v>
       </c>
       <c r="D21">
-        <v>3.280716385039921</v>
+        <v>6.083130193274886</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.84284368815027</v>
+        <v>52.31079662864576</v>
       </c>
       <c r="G21">
-        <v>2.106712430540775</v>
+        <v>3.733613211727879</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.23700936162995</v>
+        <v>35.31865437737039</v>
       </c>
       <c r="J21">
-        <v>7.549223423319075</v>
+        <v>11.2571308811831</v>
       </c>
       <c r="K21">
-        <v>14.23644104061047</v>
+        <v>13.69557162793059</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.65565358374623</v>
+        <v>17.6081537707653</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.23963797570732</v>
+        <v>12.37984447119269</v>
       </c>
       <c r="C22">
-        <v>12.89808811577327</v>
+        <v>10.5838812744553</v>
       </c>
       <c r="D22">
-        <v>3.386002317589907</v>
+        <v>6.065464044002273</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.12172725986832</v>
+        <v>52.60341832551224</v>
       </c>
       <c r="G22">
-        <v>2.099181387655888</v>
+        <v>3.731385738649885</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.90639653015932</v>
+        <v>35.4702760619393</v>
       </c>
       <c r="J22">
-        <v>7.634067272592328</v>
+        <v>11.25636998678453</v>
       </c>
       <c r="K22">
-        <v>14.79812495118744</v>
+        <v>13.77033713432018</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.19100792290256</v>
+        <v>17.63501089752322</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.93137259320304</v>
+        <v>12.32118243725941</v>
       </c>
       <c r="C23">
-        <v>12.63476154695987</v>
+        <v>10.52518314519569</v>
       </c>
       <c r="D23">
-        <v>3.330160617227571</v>
+        <v>6.074762212091319</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.43928308691299</v>
+        <v>52.44685005653991</v>
       </c>
       <c r="G23">
-        <v>2.103197764663991</v>
+        <v>3.732566947922516</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.54872092203986</v>
+        <v>35.38912781962709</v>
       </c>
       <c r="J23">
-        <v>7.588464753192893</v>
+        <v>11.25666062676195</v>
       </c>
       <c r="K23">
-        <v>14.49999093330266</v>
+        <v>13.73017269036378</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.90672306211393</v>
+        <v>17.62036025475588</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.72481186277117</v>
+        <v>12.10365458966642</v>
       </c>
       <c r="C24">
-        <v>11.65265862457361</v>
+        <v>10.30505931258146</v>
       </c>
       <c r="D24">
-        <v>3.110883925749529</v>
+        <v>6.112846925675584</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.85199655782264</v>
+        <v>51.86275795552889</v>
       </c>
       <c r="G24">
-        <v>2.118494694237495</v>
+        <v>3.737208793275752</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.20293011028023</v>
+        <v>35.0868527442227</v>
       </c>
       <c r="J24">
-        <v>7.422645605702768</v>
+        <v>11.26030003752287</v>
       </c>
       <c r="K24">
-        <v>13.33392750183106</v>
+        <v>13.58389733115663</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.0823809251231</v>
+        <v>17.57185497123794</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.33561541894558</v>
+        <v>11.88029560084503</v>
       </c>
       <c r="C25">
-        <v>10.60717014479815</v>
+        <v>10.07357579969774</v>
       </c>
       <c r="D25">
-        <v>2.857357632581296</v>
+        <v>6.160060339942413</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>47.05734056909802</v>
+        <v>51.25360011444642</v>
       </c>
       <c r="G25">
-        <v>2.135282124563768</v>
+        <v>3.742578122086319</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.76978268343553</v>
+        <v>34.77235459047488</v>
       </c>
       <c r="J25">
-        <v>7.257744948162825</v>
+        <v>11.2696604263768</v>
       </c>
       <c r="K25">
-        <v>11.99285196940571</v>
+        <v>13.43929184296304</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.27938319733099</v>
+        <v>17.53461513733536</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.7268139522358</v>
+        <v>11.23324452241996</v>
       </c>
       <c r="C2">
-        <v>9.909499752752273</v>
+        <v>9.80437726215291</v>
       </c>
       <c r="D2">
-        <v>6.200105789641675</v>
+        <v>2.655744456398173</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50.82474115624333</v>
+        <v>45.00052850458</v>
       </c>
       <c r="G2">
-        <v>3.746847011814705</v>
+        <v>2.147984324575321</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.55137006959226</v>
+        <v>29.73095797348146</v>
       </c>
       <c r="J2">
-        <v>11.28123371207078</v>
+        <v>7.14762543168269</v>
       </c>
       <c r="K2">
-        <v>13.34476527065363</v>
+        <v>10.92963016922191</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.52028713280054</v>
+        <v>11.69115545130661</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.63025426801422</v>
+        <v>10.43472768792468</v>
       </c>
       <c r="C3">
-        <v>9.802888649705475</v>
+        <v>9.240741212147869</v>
       </c>
       <c r="D3">
-        <v>6.2305438245558</v>
+        <v>2.509682185870398</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50.54717205241624</v>
+        <v>43.61078475181776</v>
       </c>
       <c r="G3">
-        <v>3.749938806359614</v>
+        <v>2.156847397276409</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.40850612635186</v>
+        <v>29.03794027188254</v>
       </c>
       <c r="J3">
-        <v>11.29199934311104</v>
+        <v>7.07971513712731</v>
       </c>
       <c r="K3">
-        <v>13.28843043936431</v>
+        <v>10.24761854334661</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.51878735781905</v>
+        <v>11.2961393440811</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.57483388182553</v>
+        <v>9.918512452062306</v>
       </c>
       <c r="C4">
-        <v>9.739888868531974</v>
+        <v>8.885648004375392</v>
       </c>
       <c r="D4">
-        <v>6.250861242848331</v>
+        <v>2.415333734075107</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>50.38344539638445</v>
+        <v>42.76113239175118</v>
       </c>
       <c r="G4">
-        <v>3.751935838986771</v>
+        <v>2.162427318344124</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.32428382170799</v>
+        <v>28.61822843121855</v>
       </c>
       <c r="J4">
-        <v>11.30005132815327</v>
+        <v>7.041226735289012</v>
       </c>
       <c r="K4">
-        <v>13.25773267807585</v>
+        <v>9.893819796661447</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.52192639610523</v>
+        <v>11.05611238867832</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.55324927226296</v>
+        <v>9.701555705828085</v>
       </c>
       <c r="C5">
-        <v>9.714863554025175</v>
+        <v>8.738810044986467</v>
       </c>
       <c r="D5">
-        <v>6.259550371940671</v>
+        <v>2.375713113608305</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50.31844795080115</v>
+        <v>42.41608921466219</v>
       </c>
       <c r="G5">
-        <v>3.752774543372936</v>
+        <v>2.164737558879361</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.29085570904437</v>
+        <v>28.44871937780245</v>
       </c>
       <c r="J5">
-        <v>11.30369521226023</v>
+        <v>7.026333949995192</v>
       </c>
       <c r="K5">
-        <v>13.24621296884049</v>
+        <v>9.748154907909699</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.52422770922233</v>
+        <v>10.95905373618815</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.54972629059011</v>
+        <v>9.665129740073015</v>
       </c>
       <c r="C6">
-        <v>9.710748053830429</v>
+        <v>8.714303379651444</v>
       </c>
       <c r="D6">
-        <v>6.26101793948924</v>
+        <v>2.369063360020365</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>50.30776024721271</v>
+        <v>42.35887594900584</v>
       </c>
       <c r="G6">
-        <v>3.752915315951314</v>
+        <v>2.165123416944551</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.28535932567953</v>
+        <v>28.42066680714461</v>
       </c>
       <c r="J6">
-        <v>11.3043221797579</v>
+        <v>7.023908366570312</v>
       </c>
       <c r="K6">
-        <v>13.24436021490056</v>
+        <v>9.723883394383764</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.52467159950874</v>
+        <v>10.94298651162687</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57453870250024</v>
+        <v>9.915613297861055</v>
       </c>
       <c r="C7">
-        <v>9.739548708960044</v>
+        <v>8.883676137127205</v>
       </c>
       <c r="D7">
-        <v>6.250976768759175</v>
+        <v>2.41480414319027</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>50.38256179663367</v>
+        <v>42.75647378668737</v>
       </c>
       <c r="G7">
-        <v>3.75194704912166</v>
+        <v>2.162458325612616</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.32382936468663</v>
+        <v>28.61593609785672</v>
       </c>
       <c r="J7">
-        <v>11.30009900250112</v>
+        <v>7.041022701522698</v>
       </c>
       <c r="K7">
-        <v>13.25757329758272</v>
+        <v>9.891861073753198</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.5219532926701</v>
+        <v>11.05480019996635</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.69273433958391</v>
+        <v>10.96324876916672</v>
       </c>
       <c r="C8">
-        <v>9.872247562184764</v>
+        <v>9.611976334635054</v>
       </c>
       <c r="D8">
-        <v>6.210262958394383</v>
+        <v>2.606349992989307</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>50.72766743802439</v>
+        <v>44.5207441003079</v>
       </c>
       <c r="G8">
-        <v>3.747892639694648</v>
+        <v>2.151012729632663</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.50139345859762</v>
+        <v>29.49083951358555</v>
       </c>
       <c r="J8">
-        <v>11.28464650297192</v>
+        <v>7.12353482000456</v>
       </c>
       <c r="K8">
-        <v>13.32454037052882</v>
+        <v>10.66933357015669</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.51892828130674</v>
+        <v>11.55450213138583</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.95391327941783</v>
+        <v>12.81566244597988</v>
       </c>
       <c r="C9">
-        <v>10.15064581834924</v>
+        <v>10.96453984739259</v>
       </c>
       <c r="D9">
-        <v>6.143336359493149</v>
+        <v>2.945061357919891</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>51.45585340878589</v>
+        <v>47.99896896951455</v>
       </c>
       <c r="G9">
-        <v>3.740720705043262</v>
+        <v>2.129580092066227</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.87669227022515</v>
+        <v>31.25006372652837</v>
       </c>
       <c r="J9">
-        <v>11.26578057410915</v>
+        <v>7.311492230831769</v>
       </c>
       <c r="K9">
-        <v>13.48618604742958</v>
+        <v>12.4561050075351</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.54513293732375</v>
+        <v>12.54960163182962</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.16187044770434</v>
+        <v>14.05900054124369</v>
       </c>
       <c r="C10">
-        <v>10.36439599058239</v>
+        <v>11.90901308877887</v>
       </c>
       <c r="D10">
-        <v>6.102027570888147</v>
+        <v>3.171720824998063</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>52.01973410704878</v>
+        <v>50.55465351589773</v>
       </c>
       <c r="G10">
-        <v>3.735920548279336</v>
+        <v>2.114324982928556</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.16801967089869</v>
+        <v>32.56674009871519</v>
       </c>
       <c r="J10">
-        <v>11.25888496680118</v>
+        <v>7.46651813405039</v>
       </c>
       <c r="K10">
-        <v>13.6225937016153</v>
+        <v>13.6567704406424</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.5838403845809</v>
+        <v>13.28464349674727</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.2595419287212</v>
+        <v>14.60041443466899</v>
       </c>
       <c r="C11">
-        <v>10.46322536962601</v>
+        <v>12.35276871051731</v>
       </c>
       <c r="D11">
-        <v>6.084940071573271</v>
+        <v>3.270120138804296</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.28196053137268</v>
+        <v>51.71599122024985</v>
       </c>
       <c r="G11">
-        <v>3.733837473165198</v>
+        <v>2.107460621342397</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.30372277087739</v>
+        <v>33.17082326839581</v>
       </c>
       <c r="J11">
-        <v>11.25725790323715</v>
+        <v>7.540953206070228</v>
       </c>
       <c r="K11">
-        <v>13.68827605884849</v>
+        <v>14.18001045348585</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.6056325095603</v>
+        <v>13.61911055822281</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.29693235967632</v>
+        <v>14.80207575260431</v>
       </c>
       <c r="C12">
-        <v>10.50084380353529</v>
+        <v>12.52450479532285</v>
       </c>
       <c r="D12">
-        <v>6.078714343019469</v>
+        <v>3.306714845102982</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.38202957931384</v>
+        <v>52.15553563638701</v>
       </c>
       <c r="G12">
-        <v>3.733063031741848</v>
+        <v>2.104869203207162</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.35554699956281</v>
+        <v>33.40032348917973</v>
       </c>
       <c r="J12">
-        <v>11.25685853824882</v>
+        <v>7.569723591170171</v>
       </c>
       <c r="K12">
-        <v>13.71365131535275</v>
+        <v>14.37497058392856</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.61448172996833</v>
+        <v>13.78750531959003</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.28886227554701</v>
+        <v>14.75879184742465</v>
       </c>
       <c r="C13">
-        <v>10.49273393696941</v>
+        <v>12.48762034180238</v>
       </c>
       <c r="D13">
-        <v>6.08004427328719</v>
+        <v>3.298863004387302</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>52.36044453680652</v>
+        <v>52.06088218476517</v>
       </c>
       <c r="G13">
-        <v>3.73322918360244</v>
+        <v>2.105427005879892</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.3443666484302</v>
+        <v>33.35086283755213</v>
       </c>
       <c r="J13">
-        <v>11.25693491383536</v>
+        <v>7.563501068181698</v>
       </c>
       <c r="K13">
-        <v>13.70816425468289</v>
+        <v>14.33312180883692</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.61254941966722</v>
+        <v>13.74759826065408</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.26261017307966</v>
+        <v>14.61707186844936</v>
       </c>
       <c r="C14">
-        <v>10.46631657632485</v>
+        <v>12.36694364410595</v>
       </c>
       <c r="D14">
-        <v>6.084422968906646</v>
+        <v>3.273144110269826</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>52.29017815211535</v>
+        <v>51.75215745328963</v>
       </c>
       <c r="G14">
-        <v>3.733773471806644</v>
+        <v>2.107247281586828</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.30797775473803</v>
+        <v>33.18968926449621</v>
       </c>
       <c r="J14">
-        <v>11.25722070502538</v>
+        <v>7.543308342295038</v>
       </c>
       <c r="K14">
-        <v>13.69035373351242</v>
+        <v>14.19611293504864</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.6063486038109</v>
+        <v>13.62952899819077</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.24658154807285</v>
+        <v>14.52983033854852</v>
       </c>
       <c r="C15">
-        <v>10.45015938683919</v>
+        <v>12.29272535614417</v>
       </c>
       <c r="D15">
-        <v>6.087136940968232</v>
+        <v>3.257304015588072</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.24723661434337</v>
+        <v>51.563024422412</v>
       </c>
       <c r="G15">
-        <v>3.734108733480042</v>
+        <v>2.108363200605613</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.28574472098253</v>
+        <v>33.09106384043232</v>
       </c>
       <c r="J15">
-        <v>11.25742397899011</v>
+        <v>7.531016353281228</v>
       </c>
       <c r="K15">
-        <v>13.67950916477618</v>
+        <v>14.11178073329387</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.60262802650287</v>
+        <v>13.57504665264287</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.15554601103503</v>
+        <v>14.02314099574947</v>
       </c>
       <c r="C16">
-        <v>10.35796630763528</v>
+        <v>11.88142246060228</v>
       </c>
       <c r="D16">
-        <v>6.103178560627223</v>
+        <v>3.165196271455413</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>52.0027075589628</v>
+        <v>50.47872659138692</v>
       </c>
       <c r="G16">
-        <v>3.736058698102728</v>
+        <v>2.114774862154121</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.15921335290916</v>
+        <v>32.52736522118337</v>
       </c>
       <c r="J16">
-        <v>11.2590216526361</v>
+        <v>7.4617340872033</v>
       </c>
       <c r="K16">
-        <v>13.61837262856563</v>
+        <v>13.6221237542969</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.58250002738321</v>
+        <v>13.26278315593269</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.10045887614418</v>
+        <v>13.70618922789581</v>
       </c>
       <c r="C17">
-        <v>10.30179185910442</v>
+        <v>11.63842498616571</v>
       </c>
       <c r="D17">
-        <v>6.113455956981382</v>
+        <v>3.107491747504317</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.85412387509862</v>
+        <v>49.8131701040086</v>
       </c>
       <c r="G17">
-        <v>3.737280629342404</v>
+        <v>2.118725544970643</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.0823898445996</v>
+        <v>32.18286563519143</v>
       </c>
       <c r="J17">
-        <v>11.26038824624236</v>
+        <v>7.420247923889199</v>
       </c>
       <c r="K17">
-        <v>13.58178369359662</v>
+        <v>13.31593988407274</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.57122065360262</v>
+        <v>13.07120754290145</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.06906551942683</v>
+        <v>13.52160275819607</v>
       </c>
       <c r="C18">
-        <v>10.26963388889563</v>
+        <v>11.4976445772632</v>
       </c>
       <c r="D18">
-        <v>6.119527646466423</v>
+        <v>3.073857663461687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>51.769203546152</v>
+        <v>49.43024070641758</v>
       </c>
       <c r="G18">
-        <v>3.737992920173671</v>
+        <v>2.121005144987338</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.03850328441062</v>
+        <v>31.98519846780914</v>
       </c>
       <c r="J18">
-        <v>11.26131640682217</v>
+        <v>7.39675312948239</v>
       </c>
       <c r="K18">
-        <v>13.56108157819531</v>
+        <v>13.13766319172132</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.56512718147389</v>
+        <v>12.96102828112146</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.05848742368636</v>
+        <v>13.45870921719757</v>
       </c>
       <c r="C19">
-        <v>10.25877294799096</v>
+        <v>11.4498040896788</v>
       </c>
       <c r="D19">
-        <v>6.121610968605211</v>
+        <v>3.062393204643123</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>51.74054547499022</v>
+        <v>49.30056941632001</v>
       </c>
       <c r="G19">
-        <v>3.738235718355454</v>
+        <v>2.121778309594071</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.02369623307951</v>
+        <v>31.91835426296292</v>
       </c>
       <c r="J19">
-        <v>11.26165508655604</v>
+        <v>7.388860624953097</v>
       </c>
       <c r="K19">
-        <v>13.55413165469216</v>
+        <v>13.07692593469723</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.5631318588972</v>
+        <v>12.92372678043852</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.10629311428009</v>
+        <v>13.74016487024374</v>
       </c>
       <c r="C20">
-        <v>10.30775624010259</v>
+        <v>11.66439738849934</v>
       </c>
       <c r="D20">
-        <v>6.112345310262349</v>
+        <v>3.113680372908082</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.86988523555558</v>
+        <v>49.88403257604859</v>
       </c>
       <c r="G20">
-        <v>3.737149573352592</v>
+        <v>2.118304255193298</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.09053690486193</v>
+        <v>32.21948854105477</v>
       </c>
       <c r="J20">
-        <v>11.2602280621424</v>
+        <v>7.424626076140129</v>
       </c>
       <c r="K20">
-        <v>13.58564329818422</v>
+        <v>13.34875720165151</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.57238060338089</v>
+        <v>13.09160042732271</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.27031037697351</v>
+        <v>14.65878867164127</v>
       </c>
       <c r="C21">
-        <v>10.4740710135363</v>
+        <v>12.40245172566211</v>
       </c>
       <c r="D21">
-        <v>6.083130193274886</v>
+        <v>3.280716385040155</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>52.31079662864576</v>
+        <v>51.84284368815045</v>
       </c>
       <c r="G21">
-        <v>3.733613211727879</v>
+        <v>2.106712430540515</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.31865437737039</v>
+        <v>33.23700936163009</v>
       </c>
       <c r="J21">
-        <v>11.2571308811831</v>
+        <v>7.549223423319103</v>
       </c>
       <c r="K21">
-        <v>13.69557162793059</v>
+        <v>14.23644104061038</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.6081537707653</v>
+        <v>13.65565358374621</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.37984447119269</v>
+        <v>15.2396379757073</v>
       </c>
       <c r="C22">
-        <v>10.5838812744553</v>
+        <v>12.89808811577342</v>
       </c>
       <c r="D22">
-        <v>6.065464044002273</v>
+        <v>3.386002317589677</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.60341832551224</v>
+        <v>53.12172725986851</v>
       </c>
       <c r="G22">
-        <v>3.731385738649885</v>
+        <v>2.099181387656285</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.4702760619393</v>
+        <v>33.90639653015942</v>
       </c>
       <c r="J22">
-        <v>11.25636998678453</v>
+        <v>7.634067272592334</v>
       </c>
       <c r="K22">
-        <v>13.77033713432018</v>
+        <v>14.79812495118748</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.63501089752322</v>
+        <v>14.19100792290255</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.32118243725941</v>
+        <v>14.93137259320311</v>
       </c>
       <c r="C23">
-        <v>10.52518314519569</v>
+        <v>12.63476154695983</v>
       </c>
       <c r="D23">
-        <v>6.074762212091319</v>
+        <v>3.330160617227511</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.44685005653991</v>
+        <v>52.43928308691294</v>
       </c>
       <c r="G23">
-        <v>3.732566947922516</v>
+        <v>2.103197764663593</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.38912781962709</v>
+        <v>33.54872092203976</v>
       </c>
       <c r="J23">
-        <v>11.25666062676195</v>
+        <v>7.588464753192868</v>
       </c>
       <c r="K23">
-        <v>13.73017269036378</v>
+        <v>14.49999093330268</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.62036025475588</v>
+        <v>13.90672306211394</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.10365458966642</v>
+        <v>13.7248118627712</v>
       </c>
       <c r="C24">
-        <v>10.30505931258146</v>
+        <v>11.65265862457356</v>
       </c>
       <c r="D24">
-        <v>6.112846925675584</v>
+        <v>3.110883925749566</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.86275795552889</v>
+        <v>49.85199655782282</v>
       </c>
       <c r="G24">
-        <v>3.737208793275752</v>
+        <v>2.118494694237365</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.0868527442227</v>
+        <v>32.20293011028038</v>
       </c>
       <c r="J24">
-        <v>11.26030003752287</v>
+        <v>7.422645605702846</v>
       </c>
       <c r="K24">
-        <v>13.58389733115663</v>
+        <v>13.33392750183106</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.57185497123794</v>
+        <v>13.08238092512313</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.88029560084503</v>
+        <v>12.33561541894562</v>
       </c>
       <c r="C25">
-        <v>10.07357579969774</v>
+        <v>10.60717014479813</v>
       </c>
       <c r="D25">
-        <v>6.160060339942413</v>
+        <v>2.857357632581405</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>51.25360011444642</v>
+        <v>47.05734056909795</v>
       </c>
       <c r="G25">
-        <v>3.742578122086319</v>
+        <v>2.135282124563764</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.77235459047488</v>
+        <v>30.76978268343548</v>
       </c>
       <c r="J25">
-        <v>11.2696604263768</v>
+        <v>7.257744948162815</v>
       </c>
       <c r="K25">
-        <v>13.43929184296304</v>
+        <v>11.99285196940575</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.53461513733536</v>
+        <v>12.27938319733097</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.23324452241996</v>
+        <v>13.08970566849143</v>
       </c>
       <c r="C2">
-        <v>9.80437726215291</v>
+        <v>9.110008019523917</v>
       </c>
       <c r="D2">
-        <v>2.655744456398173</v>
+        <v>8.7366216643382</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.00052850458</v>
+        <v>29.48091551833648</v>
       </c>
       <c r="G2">
-        <v>2.147984324575321</v>
+        <v>34.51239149417795</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.269745180587973</v>
       </c>
       <c r="I2">
-        <v>29.73095797348146</v>
+        <v>3.354215180089057</v>
       </c>
       <c r="J2">
-        <v>7.14762543168269</v>
+        <v>11.79938043751501</v>
       </c>
       <c r="K2">
-        <v>10.92963016922191</v>
+        <v>18.09984055367946</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.837037741678627</v>
       </c>
       <c r="M2">
-        <v>11.69115545130661</v>
+        <v>12.20003335093766</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.43472768792468</v>
+        <v>12.24588261596729</v>
       </c>
       <c r="C3">
-        <v>9.240741212147869</v>
+        <v>8.509680599165169</v>
       </c>
       <c r="D3">
-        <v>2.509682185870398</v>
+        <v>8.218778238512682</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.61078475181776</v>
+        <v>28.71127864412914</v>
       </c>
       <c r="G3">
-        <v>2.156847397276409</v>
+        <v>33.70531931348008</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.524042524631691</v>
       </c>
       <c r="I3">
-        <v>29.03794027188254</v>
+        <v>3.53773065361058</v>
       </c>
       <c r="J3">
-        <v>7.07971513712731</v>
+        <v>11.73310479658207</v>
       </c>
       <c r="K3">
-        <v>10.24761854334661</v>
+        <v>18.02311468058044</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.437760372785217</v>
       </c>
       <c r="M3">
-        <v>11.2961393440811</v>
+        <v>11.45965497352706</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.918512452062306</v>
+        <v>11.69622771207601</v>
       </c>
       <c r="C4">
-        <v>8.885648004375392</v>
+        <v>8.124521819845061</v>
       </c>
       <c r="D4">
-        <v>2.415333734075107</v>
+        <v>7.886126223646027</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.76113239175118</v>
+        <v>28.23259397477215</v>
       </c>
       <c r="G4">
-        <v>2.162427318344124</v>
+        <v>33.20669186279088</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.685854571528937</v>
       </c>
       <c r="I4">
-        <v>28.61822843121855</v>
+        <v>3.654858512663069</v>
       </c>
       <c r="J4">
-        <v>7.041226735289012</v>
+        <v>11.69428651008356</v>
       </c>
       <c r="K4">
-        <v>9.893819796661447</v>
+        <v>17.97765657660229</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.182445507925982</v>
       </c>
       <c r="M4">
-        <v>11.05611238867832</v>
+        <v>10.98060223316581</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.701555705828085</v>
+        <v>11.46202355849938</v>
       </c>
       <c r="C5">
-        <v>8.738810044986467</v>
+        <v>7.97344969816309</v>
       </c>
       <c r="D5">
-        <v>2.375713113608305</v>
+        <v>7.751590130494451</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.41608921466219</v>
+        <v>28.02089128696456</v>
       </c>
       <c r="G5">
-        <v>2.164737558879361</v>
+        <v>32.97631176284035</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.753507871358213</v>
       </c>
       <c r="I5">
-        <v>28.44871937780245</v>
+        <v>3.706374907679157</v>
       </c>
       <c r="J5">
-        <v>7.026333949995192</v>
+        <v>11.67402018522725</v>
       </c>
       <c r="K5">
-        <v>9.748154907909699</v>
+        <v>17.94869879664997</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.075741901799594</v>
       </c>
       <c r="M5">
-        <v>10.95905373618815</v>
+        <v>10.78099253778963</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.665129740073015</v>
+        <v>11.41988060696946</v>
       </c>
       <c r="C6">
-        <v>8.714303379651444</v>
+        <v>7.960412219619764</v>
       </c>
       <c r="D6">
-        <v>2.369063360020365</v>
+        <v>7.734738244698613</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.35887594900584</v>
+        <v>27.96694836200205</v>
       </c>
       <c r="G6">
-        <v>2.165123416944551</v>
+        <v>32.90550059961823</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.76515228208205</v>
       </c>
       <c r="I6">
-        <v>28.42066680714461</v>
+        <v>3.718392430906466</v>
       </c>
       <c r="J6">
-        <v>7.023908366570312</v>
+        <v>11.66468037375248</v>
       </c>
       <c r="K6">
-        <v>9.723883394383764</v>
+        <v>17.93067745327838</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.057664321762777</v>
       </c>
       <c r="M6">
-        <v>10.94298651162687</v>
+        <v>10.74959371684356</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.915613297861055</v>
+        <v>11.68570401912209</v>
       </c>
       <c r="C7">
-        <v>8.883676137127205</v>
+        <v>8.155267421407753</v>
       </c>
       <c r="D7">
-        <v>2.41480414319027</v>
+        <v>7.89956339919745</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.75647378668737</v>
+        <v>28.17911760617011</v>
       </c>
       <c r="G7">
-        <v>2.162458325612616</v>
+        <v>33.11548422693312</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.687629379550549</v>
       </c>
       <c r="I7">
-        <v>28.61593609785672</v>
+        <v>3.664547612383842</v>
       </c>
       <c r="J7">
-        <v>7.041022701522698</v>
+        <v>11.67767897354314</v>
       </c>
       <c r="K7">
-        <v>9.891861073753198</v>
+        <v>17.94120637465786</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.180452295233257</v>
       </c>
       <c r="M7">
-        <v>11.05480019996635</v>
+        <v>10.98359149493937</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.96324876916672</v>
+        <v>12.79624117555422</v>
       </c>
       <c r="C8">
-        <v>9.611976334635054</v>
+        <v>8.946372660541769</v>
       </c>
       <c r="D8">
-        <v>2.606349992989307</v>
+        <v>8.579846588462138</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.5207441003079</v>
+        <v>29.15226128787985</v>
       </c>
       <c r="G8">
-        <v>2.151012729632663</v>
+        <v>34.12188075186185</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.357358332689755</v>
       </c>
       <c r="I8">
-        <v>29.49083951358555</v>
+        <v>3.428101174157354</v>
       </c>
       <c r="J8">
-        <v>7.12353482000456</v>
+        <v>11.75482844953457</v>
       </c>
       <c r="K8">
-        <v>10.66933357015669</v>
+        <v>18.02585650232001</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.700822099695891</v>
       </c>
       <c r="M8">
-        <v>11.55450213138583</v>
+        <v>11.95681881541008</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.81566244597988</v>
+        <v>14.73649080490248</v>
       </c>
       <c r="C9">
-        <v>10.96453984739259</v>
+        <v>10.31509683569417</v>
       </c>
       <c r="D9">
-        <v>2.945061357919891</v>
+        <v>9.771240416110798</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.99896896951455</v>
+        <v>31.08992321316332</v>
       </c>
       <c r="G9">
-        <v>2.129580092066227</v>
+        <v>36.21430088332377</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.752180326389443</v>
       </c>
       <c r="I9">
-        <v>31.25006372652837</v>
+        <v>2.98425863977111</v>
       </c>
       <c r="J9">
-        <v>7.311492230831769</v>
+        <v>11.95010803491561</v>
       </c>
       <c r="K9">
-        <v>12.4561050075351</v>
+        <v>18.26924910318227</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.639236174537904</v>
       </c>
       <c r="M9">
-        <v>12.54960163182962</v>
+        <v>13.66145713978211</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.05900054124369</v>
+        <v>16.01268126735269</v>
       </c>
       <c r="C10">
-        <v>11.90901308877887</v>
+        <v>11.21889576042028</v>
       </c>
       <c r="D10">
-        <v>3.171720824998063</v>
+        <v>10.44983183677889</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.55465351589773</v>
+        <v>32.156019166933</v>
       </c>
       <c r="G10">
-        <v>2.114324982928556</v>
+        <v>37.3402665443564</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.767131531583372</v>
       </c>
       <c r="I10">
-        <v>32.56674009871519</v>
+        <v>2.690941024253835</v>
       </c>
       <c r="J10">
-        <v>7.46651813405039</v>
+        <v>12.02921283160329</v>
       </c>
       <c r="K10">
-        <v>13.6567704406424</v>
+        <v>18.32148337482338</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.09109317013253</v>
       </c>
       <c r="M10">
-        <v>13.28464349674727</v>
+        <v>14.78719791651577</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.60041443466899</v>
+        <v>16.58718777087741</v>
       </c>
       <c r="C11">
-        <v>12.35276871051731</v>
+        <v>11.3435777958477</v>
       </c>
       <c r="D11">
-        <v>3.270120138804296</v>
+        <v>9.655530766328354</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.71599122024985</v>
+        <v>30.07057295354329</v>
       </c>
       <c r="G11">
-        <v>2.107460621342397</v>
+        <v>34.77866690452614</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.706780561645018</v>
       </c>
       <c r="I11">
-        <v>33.17082326839581</v>
+        <v>2.63341695206465</v>
       </c>
       <c r="J11">
-        <v>7.540953206070228</v>
+        <v>11.47251085671856</v>
       </c>
       <c r="K11">
-        <v>14.18001045348585</v>
+        <v>17.28265979044458</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.74938154248334</v>
       </c>
       <c r="M11">
-        <v>13.61911055822281</v>
+        <v>15.19584908474975</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.80207575260431</v>
+        <v>16.82385599710674</v>
       </c>
       <c r="C12">
-        <v>12.52450479532285</v>
+        <v>11.22578140798355</v>
       </c>
       <c r="D12">
-        <v>3.306714845102982</v>
+        <v>8.819394684865225</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.15553563638701</v>
+        <v>28.1475313879186</v>
       </c>
       <c r="G12">
-        <v>2.104869203207162</v>
+        <v>32.48535318180068</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.035423224567382</v>
       </c>
       <c r="I12">
-        <v>33.40032348917973</v>
+        <v>2.623669132621069</v>
       </c>
       <c r="J12">
-        <v>7.569723591170171</v>
+        <v>11.01312614210781</v>
       </c>
       <c r="K12">
-        <v>14.37497058392856</v>
+        <v>16.46585425260935</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.599519335451201</v>
       </c>
       <c r="M12">
-        <v>13.78750531959003</v>
+        <v>15.30624182831101</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.75879184742465</v>
+        <v>16.81430264404835</v>
       </c>
       <c r="C13">
-        <v>12.48762034180238</v>
+        <v>10.94856530044405</v>
       </c>
       <c r="D13">
-        <v>3.298863004387302</v>
+        <v>7.893813197283038</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>52.06088218476517</v>
+        <v>26.14107120200951</v>
       </c>
       <c r="G13">
-        <v>2.105427005879892</v>
+        <v>30.1081617616711</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.505216568423315</v>
       </c>
       <c r="I13">
-        <v>33.35086283755213</v>
+        <v>2.665653805253821</v>
       </c>
       <c r="J13">
-        <v>7.563501068181698</v>
+        <v>10.57681676266829</v>
       </c>
       <c r="K13">
-        <v>14.33312180883692</v>
+        <v>15.72035345146317</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.547737612349082</v>
       </c>
       <c r="M13">
-        <v>13.74759826065408</v>
+        <v>15.20434082302984</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.61707186844936</v>
+        <v>16.6948279102036</v>
       </c>
       <c r="C14">
-        <v>12.36694364410595</v>
+        <v>10.68633297481877</v>
       </c>
       <c r="D14">
-        <v>3.273144110269826</v>
+        <v>7.19749505311811</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.75215745328963</v>
+        <v>24.68695036112732</v>
       </c>
       <c r="G14">
-        <v>2.107247281586828</v>
+        <v>28.38375128227895</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.53559328353339</v>
       </c>
       <c r="I14">
-        <v>33.18968926449621</v>
+        <v>2.721188702656386</v>
       </c>
       <c r="J14">
-        <v>7.543308342295038</v>
+        <v>10.28152299678602</v>
       </c>
       <c r="K14">
-        <v>14.19611293504864</v>
+        <v>15.23247299091149</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.905685717577107</v>
       </c>
       <c r="M14">
-        <v>13.62952899819077</v>
+        <v>15.03737133426556</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.52983033854852</v>
+        <v>16.61010931893273</v>
       </c>
       <c r="C15">
-        <v>12.29272535614417</v>
+        <v>10.59690145613635</v>
       </c>
       <c r="D15">
-        <v>3.257304015588072</v>
+        <v>7.011320113147292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.563024422412</v>
+        <v>24.30060383330286</v>
       </c>
       <c r="G15">
-        <v>2.108363200605613</v>
+        <v>27.92020724305549</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.775233126884625</v>
       </c>
       <c r="I15">
-        <v>33.09106384043232</v>
+        <v>2.750916694067159</v>
       </c>
       <c r="J15">
-        <v>7.531016353281228</v>
+        <v>10.2097083439177</v>
       </c>
       <c r="K15">
-        <v>14.11178073329387</v>
+        <v>15.11747503916015</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.76253834969653</v>
       </c>
       <c r="M15">
-        <v>13.57504665264287</v>
+        <v>14.9522121811789</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.02314099574947</v>
+        <v>16.08923480793263</v>
       </c>
       <c r="C16">
-        <v>11.88142246060228</v>
+        <v>10.2769586409292</v>
       </c>
       <c r="D16">
-        <v>3.165196271455413</v>
+        <v>6.854535860793078</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.47872659138692</v>
+        <v>24.16858374874377</v>
       </c>
       <c r="G16">
-        <v>2.114774862154121</v>
+        <v>27.80197949044866</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.580129858650389</v>
       </c>
       <c r="I16">
-        <v>32.52736522118337</v>
+        <v>2.872112908181019</v>
       </c>
       <c r="J16">
-        <v>7.4617340872033</v>
+        <v>10.25460042246037</v>
       </c>
       <c r="K16">
-        <v>13.6221237542969</v>
+        <v>15.23013683403816</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.729787232530833</v>
       </c>
       <c r="M16">
-        <v>13.26278315593269</v>
+        <v>14.50890702034934</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.70618922789581</v>
+        <v>15.74653483906788</v>
       </c>
       <c r="C17">
-        <v>11.63842498616571</v>
+        <v>10.17449621199428</v>
       </c>
       <c r="D17">
-        <v>3.107491747504317</v>
+        <v>7.121602413500562</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.8131701040086</v>
+        <v>24.84730119451682</v>
       </c>
       <c r="G17">
-        <v>2.118725544970643</v>
+        <v>28.63683617600058</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.853906000485763</v>
       </c>
       <c r="I17">
-        <v>32.18286563519143</v>
+        <v>2.936790871589267</v>
       </c>
       <c r="J17">
-        <v>7.420247923889199</v>
+        <v>10.44389715954345</v>
       </c>
       <c r="K17">
-        <v>13.31593988407274</v>
+        <v>15.56846271177066</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.027423630346697</v>
       </c>
       <c r="M17">
-        <v>13.07120754290145</v>
+        <v>14.25459751692819</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.52160275819607</v>
+        <v>15.53166372155129</v>
       </c>
       <c r="C18">
-        <v>11.4976445772632</v>
+        <v>10.23106912479515</v>
       </c>
       <c r="D18">
-        <v>3.073857663461687</v>
+        <v>7.778755621358282</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.43024070641758</v>
+        <v>26.35131960338778</v>
       </c>
       <c r="G18">
-        <v>2.121005144987338</v>
+        <v>30.46089264410629</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.60858507828937</v>
       </c>
       <c r="I18">
-        <v>31.98519846780914</v>
+        <v>2.947229650286464</v>
       </c>
       <c r="J18">
-        <v>7.39675312948239</v>
+        <v>10.79608434055851</v>
       </c>
       <c r="K18">
-        <v>13.13766319172132</v>
+        <v>16.18242244135678</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.76425678750632</v>
       </c>
       <c r="M18">
-        <v>12.96102828112146</v>
+        <v>14.13721339588898</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.45870921719757</v>
+        <v>15.42929051943301</v>
       </c>
       <c r="C19">
-        <v>11.4498040896788</v>
+        <v>10.4602493609565</v>
       </c>
       <c r="D19">
-        <v>3.062393204643123</v>
+        <v>8.715685847611674</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.30056941632001</v>
+        <v>28.34749908672678</v>
       </c>
       <c r="G19">
-        <v>2.121778309594071</v>
+        <v>32.82289103317434</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.12121425845152</v>
       </c>
       <c r="I19">
-        <v>31.91835426296292</v>
+        <v>2.929772978837099</v>
       </c>
       <c r="J19">
-        <v>7.388860624953097</v>
+        <v>11.23817741149911</v>
       </c>
       <c r="K19">
-        <v>13.07692593469723</v>
+        <v>16.94815618386291</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.911603631747637</v>
       </c>
       <c r="M19">
-        <v>12.92372678043852</v>
+        <v>14.15082168438731</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.74016487024374</v>
+        <v>15.66996209086208</v>
       </c>
       <c r="C20">
-        <v>11.66439738849934</v>
+        <v>11.06305370986924</v>
       </c>
       <c r="D20">
-        <v>3.113680372908082</v>
+        <v>10.30667862793051</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.88403257604859</v>
+        <v>31.72710013077741</v>
       </c>
       <c r="G20">
-        <v>2.118304255193298</v>
+        <v>36.78711772665</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.660831952355188</v>
       </c>
       <c r="I20">
-        <v>32.21948854105477</v>
+        <v>2.798795091185332</v>
       </c>
       <c r="J20">
-        <v>7.424626076140129</v>
+        <v>11.95671875152034</v>
       </c>
       <c r="K20">
-        <v>13.34875720165151</v>
+        <v>18.1948455496624</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.965068754998327</v>
       </c>
       <c r="M20">
-        <v>13.09160042732271</v>
+        <v>14.5130501989046</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.65878867164127</v>
+        <v>16.60094513279698</v>
       </c>
       <c r="C21">
-        <v>12.40245172566211</v>
+        <v>11.76729698879529</v>
       </c>
       <c r="D21">
-        <v>3.280716385040155</v>
+        <v>10.99566890046593</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.84284368815045</v>
+        <v>33.01357490404379</v>
       </c>
       <c r="G21">
-        <v>2.106712430540515</v>
+        <v>38.23216679086216</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.98144852740154</v>
       </c>
       <c r="I21">
-        <v>33.23700936163009</v>
+        <v>2.564991903480653</v>
       </c>
       <c r="J21">
-        <v>7.549223423319103</v>
+        <v>12.13492186120754</v>
       </c>
       <c r="K21">
-        <v>14.23644104061038</v>
+        <v>18.44656374186319</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.58212008934912</v>
       </c>
       <c r="M21">
-        <v>13.65565358374621</v>
+        <v>15.35142544458092</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.2396379757073</v>
+        <v>17.19144829615394</v>
       </c>
       <c r="C22">
-        <v>12.89808811577342</v>
+        <v>12.16586428023771</v>
       </c>
       <c r="D22">
-        <v>3.386002317589677</v>
+        <v>11.35159454038662</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.12172725986851</v>
+        <v>33.74884703963461</v>
       </c>
       <c r="G22">
-        <v>2.099181387656285</v>
+        <v>39.08821617582065</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.178997203983794</v>
       </c>
       <c r="I22">
-        <v>33.90639653015942</v>
+        <v>2.594147941107982</v>
       </c>
       <c r="J22">
-        <v>7.634067272592334</v>
+        <v>12.23889177313138</v>
       </c>
       <c r="K22">
-        <v>14.79812495118748</v>
+        <v>18.5961736214239</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.88070331018644</v>
       </c>
       <c r="M22">
-        <v>14.19100792290255</v>
+        <v>15.86750691570318</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.93137259320311</v>
+        <v>16.88508918944674</v>
       </c>
       <c r="C23">
-        <v>12.63476154695983</v>
+        <v>11.92670620289605</v>
       </c>
       <c r="D23">
-        <v>3.330160617227511</v>
+        <v>11.14967234229892</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.43928308691294</v>
+        <v>33.407759590448</v>
       </c>
       <c r="G23">
-        <v>2.103197764663593</v>
+        <v>38.72067547782562</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.074743977269973</v>
       </c>
       <c r="I23">
-        <v>33.54872092203976</v>
+        <v>2.514994419494416</v>
       </c>
       <c r="J23">
-        <v>7.588464753192868</v>
+        <v>12.2011249127586</v>
       </c>
       <c r="K23">
-        <v>14.49999093330268</v>
+        <v>18.55612841930367</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.72275124372613</v>
       </c>
       <c r="M23">
-        <v>13.90672306211394</v>
+        <v>15.58904258860923</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.7248118627712</v>
+        <v>15.66150282171028</v>
       </c>
       <c r="C24">
-        <v>11.65265862457356</v>
+        <v>11.03504821225897</v>
       </c>
       <c r="D24">
-        <v>3.110883925749566</v>
+        <v>10.37778990159882</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.85199655782282</v>
+        <v>32.01811189790315</v>
       </c>
       <c r="G24">
-        <v>2.118494694237365</v>
+        <v>37.17852159333722</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.670666177948923</v>
       </c>
       <c r="I24">
-        <v>32.20293011028038</v>
+        <v>2.777883283520067</v>
       </c>
       <c r="J24">
-        <v>7.422645605702846</v>
+        <v>12.03464182813862</v>
       </c>
       <c r="K24">
-        <v>13.33392750183106</v>
+        <v>18.34718751885712</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.10366870413163</v>
       </c>
       <c r="M24">
-        <v>13.08238092512313</v>
+        <v>14.49898165302391</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.33561541894562</v>
+        <v>14.22694890249455</v>
       </c>
       <c r="C25">
-        <v>10.60717014479813</v>
+        <v>10.00777227592455</v>
       </c>
       <c r="D25">
-        <v>2.857357632581405</v>
+        <v>9.48493496863226</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>47.05734056909795</v>
+        <v>30.48903183510471</v>
       </c>
       <c r="G25">
-        <v>2.135282124563764</v>
+        <v>35.50555239780294</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.912756174073799</v>
       </c>
       <c r="I25">
-        <v>30.76978268343548</v>
+        <v>3.117520222508169</v>
       </c>
       <c r="J25">
-        <v>7.257744948162815</v>
+        <v>11.86709501434197</v>
       </c>
       <c r="K25">
-        <v>11.99285196940575</v>
+        <v>18.13855348402632</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.393680617167817</v>
       </c>
       <c r="M25">
-        <v>12.27938319733097</v>
+        <v>13.2298898828941</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.08970566849143</v>
+        <v>13.03335931577242</v>
       </c>
       <c r="C2">
-        <v>9.110008019523917</v>
+        <v>9.742995233536906</v>
       </c>
       <c r="D2">
-        <v>8.7366216643382</v>
+        <v>9.165773362650748</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.48091551833648</v>
+        <v>27.99349784211323</v>
       </c>
       <c r="G2">
-        <v>34.51239149417795</v>
+        <v>31.57859702297915</v>
       </c>
       <c r="H2">
-        <v>2.269745180587973</v>
+        <v>2.192477797626262</v>
       </c>
       <c r="I2">
-        <v>3.354215180089057</v>
+        <v>3.169312025392173</v>
       </c>
       <c r="J2">
-        <v>11.79938043751501</v>
+        <v>11.42207860644235</v>
       </c>
       <c r="K2">
-        <v>18.09984055367946</v>
+        <v>16.76786659784886</v>
       </c>
       <c r="L2">
-        <v>8.837037741678627</v>
+        <v>13.64762574518499</v>
       </c>
       <c r="M2">
-        <v>12.20003335093766</v>
+        <v>11.1926207182857</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.885430243424013</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.37705278707881</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.24588261596729</v>
+        <v>12.22421881668775</v>
       </c>
       <c r="C3">
-        <v>8.509680599165169</v>
+        <v>9.037868024460325</v>
       </c>
       <c r="D3">
-        <v>8.218778238512682</v>
+        <v>8.611232343564938</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.71127864412914</v>
+        <v>27.37684094417751</v>
       </c>
       <c r="G3">
-        <v>33.70531931348008</v>
+        <v>31.08918496014164</v>
       </c>
       <c r="H3">
-        <v>2.524042524631691</v>
+        <v>2.4339762333451</v>
       </c>
       <c r="I3">
-        <v>3.53773065361058</v>
+        <v>3.328506501627568</v>
       </c>
       <c r="J3">
-        <v>11.73310479658207</v>
+        <v>11.36168575274493</v>
       </c>
       <c r="K3">
-        <v>18.02311468058044</v>
+        <v>16.79541483253006</v>
       </c>
       <c r="L3">
-        <v>8.437760372785217</v>
+        <v>13.75608611606335</v>
       </c>
       <c r="M3">
-        <v>11.45965497352706</v>
+        <v>11.14603641848048</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.495525876558499</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.62394359727611</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.69622771207601</v>
+        <v>11.69755767686838</v>
       </c>
       <c r="C4">
-        <v>8.124521819845061</v>
+        <v>8.583902808454997</v>
       </c>
       <c r="D4">
-        <v>7.886126223646027</v>
+        <v>8.25507890676039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.23259397477215</v>
+        <v>26.99344146393498</v>
       </c>
       <c r="G4">
-        <v>33.20669186279088</v>
+        <v>30.792150219308</v>
       </c>
       <c r="H4">
-        <v>2.685854571528937</v>
+        <v>2.587749015321529</v>
       </c>
       <c r="I4">
-        <v>3.654858512663069</v>
+        <v>3.430460917269854</v>
       </c>
       <c r="J4">
-        <v>11.69428651008356</v>
+        <v>11.32425099271575</v>
       </c>
       <c r="K4">
-        <v>17.97765657660229</v>
+        <v>16.81312699491633</v>
       </c>
       <c r="L4">
-        <v>8.182445507925982</v>
+        <v>13.82090582751786</v>
       </c>
       <c r="M4">
-        <v>10.98060223316581</v>
+        <v>11.13413401905651</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.246403912990607</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.13661036477427</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46202355849938</v>
+        <v>11.47335623687885</v>
       </c>
       <c r="C5">
-        <v>7.97344969816309</v>
+        <v>8.403271779525962</v>
       </c>
       <c r="D5">
-        <v>7.751590130494451</v>
+        <v>8.110349622557408</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.02089128696456</v>
+        <v>26.82222986690906</v>
       </c>
       <c r="G5">
-        <v>32.97631176284035</v>
+        <v>30.64804004467511</v>
       </c>
       <c r="H5">
-        <v>2.753507871358213</v>
+        <v>2.652050736797697</v>
       </c>
       <c r="I5">
-        <v>3.706374907679157</v>
+        <v>3.476172150444062</v>
       </c>
       <c r="J5">
-        <v>11.67402018522725</v>
+        <v>11.3044558334841</v>
       </c>
       <c r="K5">
-        <v>17.94869879664997</v>
+        <v>16.81114827606781</v>
       </c>
       <c r="L5">
-        <v>8.075741901799594</v>
+        <v>13.83854404409384</v>
       </c>
       <c r="M5">
-        <v>10.78099253778963</v>
+        <v>11.12766743844343</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.142355211937167</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.93339476393815</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41988060696946</v>
+        <v>11.43312499025363</v>
       </c>
       <c r="C6">
-        <v>7.960412219619764</v>
+        <v>8.384778971983868</v>
       </c>
       <c r="D6">
-        <v>7.734738244698613</v>
+        <v>8.09131077519854</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.96694836200205</v>
+        <v>26.77674457283887</v>
       </c>
       <c r="G6">
-        <v>32.90550059961823</v>
+        <v>30.59490743095952</v>
       </c>
       <c r="H6">
-        <v>2.76515228208205</v>
+        <v>2.663101996947696</v>
       </c>
       <c r="I6">
-        <v>3.718392430906466</v>
+        <v>3.487806689426882</v>
       </c>
       <c r="J6">
-        <v>11.66468037375248</v>
+        <v>11.29572321794131</v>
       </c>
       <c r="K6">
-        <v>17.93067745327838</v>
+        <v>16.79938467437191</v>
       </c>
       <c r="L6">
-        <v>8.057664321762777</v>
+        <v>13.83128287076187</v>
       </c>
       <c r="M6">
-        <v>10.74959371684356</v>
+        <v>11.11974141355787</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.124746221289396</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.90123510540645</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.68570401912209</v>
+        <v>11.68920724413691</v>
       </c>
       <c r="C7">
-        <v>8.155267421407753</v>
+        <v>8.603724128359879</v>
       </c>
       <c r="D7">
-        <v>7.89956339919745</v>
+        <v>8.275452426913892</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.17911760617011</v>
+        <v>26.91774614515659</v>
       </c>
       <c r="G7">
-        <v>33.11548422693312</v>
+        <v>30.76572833197282</v>
       </c>
       <c r="H7">
-        <v>2.687629379550549</v>
+        <v>2.589973849705864</v>
       </c>
       <c r="I7">
-        <v>3.664547612383842</v>
+        <v>3.442250314208414</v>
       </c>
       <c r="J7">
-        <v>11.67767897354314</v>
+        <v>11.26370566557327</v>
       </c>
       <c r="K7">
-        <v>17.94120637465786</v>
+        <v>16.7678727808209</v>
       </c>
       <c r="L7">
-        <v>8.180452295233257</v>
+        <v>13.78170781084734</v>
       </c>
       <c r="M7">
-        <v>10.98359149493937</v>
+        <v>11.10506926081159</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.244118306305575</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.13710140764522</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.79624117555422</v>
+        <v>12.75671824324153</v>
       </c>
       <c r="C8">
-        <v>8.946372660541769</v>
+        <v>9.514272922029994</v>
       </c>
       <c r="D8">
-        <v>8.579846588462138</v>
+        <v>9.020799484856486</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.15226128787985</v>
+        <v>27.63526179520189</v>
       </c>
       <c r="G8">
-        <v>34.12188075186185</v>
+        <v>31.48721993805105</v>
       </c>
       <c r="H8">
-        <v>2.357358332689755</v>
+        <v>2.277404292960577</v>
       </c>
       <c r="I8">
-        <v>3.428101174157354</v>
+        <v>3.238810939230384</v>
       </c>
       <c r="J8">
-        <v>11.75482844953457</v>
+        <v>11.23416425044146</v>
       </c>
       <c r="K8">
-        <v>18.02585650232001</v>
+        <v>16.69080334492219</v>
       </c>
       <c r="L8">
-        <v>8.700822099695891</v>
+        <v>13.61443820256011</v>
       </c>
       <c r="M8">
-        <v>11.95681881541008</v>
+        <v>11.11257731064564</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.751283977739726</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.12280081577266</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.73649080490248</v>
+        <v>14.61892242882744</v>
       </c>
       <c r="C9">
-        <v>10.31509683569417</v>
+        <v>11.11828564882686</v>
       </c>
       <c r="D9">
-        <v>9.771240416110798</v>
+        <v>10.30260221531151</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.08992321316332</v>
+        <v>29.17892357498701</v>
       </c>
       <c r="G9">
-        <v>36.21430088332377</v>
+        <v>32.86316483757829</v>
       </c>
       <c r="H9">
-        <v>1.752180326389443</v>
+        <v>1.703673995515662</v>
       </c>
       <c r="I9">
-        <v>2.98425863977111</v>
+        <v>2.853141493659439</v>
       </c>
       <c r="J9">
-        <v>11.95010803491561</v>
+        <v>11.36276359745494</v>
       </c>
       <c r="K9">
-        <v>18.26924910318227</v>
+        <v>16.65280041203813</v>
       </c>
       <c r="L9">
-        <v>9.639236174537904</v>
+        <v>13.36072205800117</v>
       </c>
       <c r="M9">
-        <v>13.66145713978211</v>
+        <v>11.33177586753809</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.668369744552185</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.85584077781714</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.01268126735269</v>
+        <v>15.85456033861717</v>
       </c>
       <c r="C10">
-        <v>11.21889576042028</v>
+        <v>12.1182138060628</v>
       </c>
       <c r="D10">
-        <v>10.44983183677889</v>
+        <v>11.0718267544074</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.156019166933</v>
+        <v>29.86155820566204</v>
       </c>
       <c r="G10">
-        <v>37.3402665443564</v>
+        <v>33.86152237628991</v>
       </c>
       <c r="H10">
-        <v>1.767131531583372</v>
+        <v>1.790495196294479</v>
       </c>
       <c r="I10">
-        <v>2.690941024253835</v>
+        <v>2.604694664570129</v>
       </c>
       <c r="J10">
-        <v>12.02921283160329</v>
+        <v>11.15048454786767</v>
       </c>
       <c r="K10">
-        <v>18.32148337482338</v>
+        <v>16.44978404032311</v>
       </c>
       <c r="L10">
-        <v>10.09109317013253</v>
+        <v>13.0358716582633</v>
       </c>
       <c r="M10">
-        <v>14.78719791651577</v>
+        <v>11.42443037962</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.1053024398232</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.98777232687131</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.58718777087741</v>
+        <v>16.45213364946936</v>
       </c>
       <c r="C11">
-        <v>11.3435777958477</v>
+        <v>12.08543857333873</v>
       </c>
       <c r="D11">
-        <v>9.655530766328354</v>
+        <v>10.31904182643641</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.07057295354329</v>
+        <v>27.64289893972707</v>
       </c>
       <c r="G11">
-        <v>34.77866690452614</v>
+        <v>32.19114598051164</v>
       </c>
       <c r="H11">
-        <v>2.706780561645018</v>
+        <v>2.716085589258417</v>
       </c>
       <c r="I11">
-        <v>2.63341695206465</v>
+        <v>2.566750930908039</v>
       </c>
       <c r="J11">
-        <v>11.47251085671856</v>
+        <v>10.22428873418671</v>
       </c>
       <c r="K11">
-        <v>17.28265979044458</v>
+        <v>15.43461337838394</v>
       </c>
       <c r="L11">
-        <v>8.74938154248334</v>
+        <v>12.2483344272605</v>
       </c>
       <c r="M11">
-        <v>15.19584908474975</v>
+        <v>10.71141243169478</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.758964769604642</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.36215881479198</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.82385599710674</v>
+        <v>16.71198603756054</v>
       </c>
       <c r="C12">
-        <v>11.22578140798355</v>
+        <v>11.84025970451531</v>
       </c>
       <c r="D12">
-        <v>8.819394684865225</v>
+        <v>9.476483647855474</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.1475313879186</v>
+        <v>25.77617159112805</v>
       </c>
       <c r="G12">
-        <v>32.48535318180068</v>
+        <v>30.46829552394585</v>
       </c>
       <c r="H12">
-        <v>4.035423224567382</v>
+        <v>4.03049666190533</v>
       </c>
       <c r="I12">
-        <v>2.623669132621069</v>
+        <v>2.559984445882892</v>
       </c>
       <c r="J12">
-        <v>11.01312614210781</v>
+        <v>9.703437876526381</v>
       </c>
       <c r="K12">
-        <v>16.46585425260935</v>
+        <v>14.74180425146847</v>
       </c>
       <c r="L12">
-        <v>7.599519335451201</v>
+        <v>11.75529298170771</v>
       </c>
       <c r="M12">
-        <v>15.30624182831101</v>
+        <v>10.16798146904367</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.60891771156276</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.44782029501559</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.81430264404835</v>
+        <v>16.72513990763288</v>
       </c>
       <c r="C13">
-        <v>10.94856530044405</v>
+        <v>11.46211411788744</v>
       </c>
       <c r="D13">
-        <v>7.893813197283038</v>
+        <v>8.489678416601706</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.14107120200951</v>
+        <v>24.03713222779545</v>
       </c>
       <c r="G13">
-        <v>30.1081617616711</v>
+        <v>28.3386996089093</v>
       </c>
       <c r="H13">
-        <v>5.505216568423315</v>
+        <v>5.499883824385972</v>
       </c>
       <c r="I13">
-        <v>2.665653805253821</v>
+        <v>2.594359878501505</v>
       </c>
       <c r="J13">
-        <v>10.57681676266829</v>
+        <v>9.469870637771823</v>
       </c>
       <c r="K13">
-        <v>15.72035345146317</v>
+        <v>14.23074831338262</v>
       </c>
       <c r="L13">
-        <v>6.547737612349082</v>
+        <v>11.42074076541203</v>
       </c>
       <c r="M13">
-        <v>15.20434082302984</v>
+        <v>9.715631867763891</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.561943845708066</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.32964753102564</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.6948279102036</v>
+        <v>16.62177103601678</v>
       </c>
       <c r="C14">
-        <v>10.68633297481877</v>
+        <v>11.13833701862805</v>
       </c>
       <c r="D14">
-        <v>7.19749505311811</v>
+        <v>7.725806946230068</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.68695036112732</v>
+        <v>22.86087380806585</v>
       </c>
       <c r="G14">
-        <v>28.38375128227895</v>
+        <v>26.65810743469105</v>
       </c>
       <c r="H14">
-        <v>6.53559328353339</v>
+        <v>6.529225128355468</v>
       </c>
       <c r="I14">
-        <v>2.721188702656386</v>
+        <v>2.640512127353663</v>
       </c>
       <c r="J14">
-        <v>10.28152299678602</v>
+        <v>9.408161051919782</v>
       </c>
       <c r="K14">
-        <v>15.23247299091149</v>
+        <v>13.94713921361343</v>
       </c>
       <c r="L14">
-        <v>5.905685717577107</v>
+        <v>11.24560333304965</v>
       </c>
       <c r="M14">
-        <v>15.03737133426556</v>
+        <v>9.43966368617774</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.92604836735413</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.15456866833152</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.61010931893273</v>
+        <v>16.54131013268262</v>
       </c>
       <c r="C15">
-        <v>10.59690145613635</v>
+        <v>11.03747290074918</v>
       </c>
       <c r="D15">
-        <v>7.011320113147292</v>
+        <v>7.512609896155185</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.30060383330286</v>
+        <v>22.58080584804249</v>
       </c>
       <c r="G15">
-        <v>27.92020724305549</v>
+        <v>26.15573840256822</v>
       </c>
       <c r="H15">
-        <v>6.775233126884625</v>
+        <v>6.768219851407969</v>
       </c>
       <c r="I15">
-        <v>2.750916694067159</v>
+        <v>2.666506856217751</v>
       </c>
       <c r="J15">
-        <v>10.2097083439177</v>
+        <v>9.4318853892067</v>
       </c>
       <c r="K15">
-        <v>15.11747503916015</v>
+        <v>13.90017461474119</v>
       </c>
       <c r="L15">
-        <v>5.76253834969653</v>
+        <v>11.2204124673078</v>
       </c>
       <c r="M15">
-        <v>14.9522121811789</v>
+        <v>9.382956062924574</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.785653224849715</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.06884679229743</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.08923480793263</v>
+        <v>16.02347648229717</v>
       </c>
       <c r="C16">
-        <v>10.2769586409292</v>
+        <v>10.74976169018931</v>
       </c>
       <c r="D16">
-        <v>6.854535860793078</v>
+        <v>7.271164844907318</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.16858374874377</v>
+        <v>22.75840345085043</v>
       </c>
       <c r="G16">
-        <v>27.80197949044866</v>
+        <v>25.63155355213266</v>
       </c>
       <c r="H16">
-        <v>6.580129858650389</v>
+        <v>6.568639684284945</v>
       </c>
       <c r="I16">
-        <v>2.872112908181019</v>
+        <v>2.767234526662692</v>
       </c>
       <c r="J16">
-        <v>10.25460042246037</v>
+        <v>9.813053249770942</v>
       </c>
       <c r="K16">
-        <v>15.23013683403816</v>
+        <v>14.157034968075</v>
       </c>
       <c r="L16">
-        <v>5.729787232530833</v>
+        <v>11.42249421309221</v>
       </c>
       <c r="M16">
-        <v>14.50890702034934</v>
+        <v>9.52405765444608</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.763648273629548</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.63868171156454</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.74653483906788</v>
+        <v>15.67622633991372</v>
       </c>
       <c r="C17">
-        <v>10.17449621199428</v>
+        <v>10.69654413454073</v>
       </c>
       <c r="D17">
-        <v>7.121602413500562</v>
+        <v>7.518660406477701</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.84730119451682</v>
+        <v>23.49897657281387</v>
       </c>
       <c r="G17">
-        <v>28.63683617600058</v>
+        <v>26.19605845425989</v>
       </c>
       <c r="H17">
-        <v>5.853906000485763</v>
+        <v>5.838520014883865</v>
       </c>
       <c r="I17">
-        <v>2.936790871589267</v>
+        <v>2.8218607632323</v>
       </c>
       <c r="J17">
-        <v>10.44389715954345</v>
+        <v>10.12128589397401</v>
       </c>
       <c r="K17">
-        <v>15.56846271177066</v>
+        <v>14.49366114409844</v>
       </c>
       <c r="L17">
-        <v>6.027423630346697</v>
+        <v>11.67644929736532</v>
       </c>
       <c r="M17">
-        <v>14.25459751692819</v>
+        <v>9.760165699693351</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.065044420283004</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.39674568894492</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.53166372155129</v>
+        <v>15.4465600308467</v>
       </c>
       <c r="C18">
-        <v>10.23106912479515</v>
+        <v>10.83872564134894</v>
       </c>
       <c r="D18">
-        <v>7.778755621358282</v>
+        <v>8.197277432607116</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.35131960338778</v>
+        <v>24.90531206745191</v>
       </c>
       <c r="G18">
-        <v>30.46089264410629</v>
+        <v>27.70394422154656</v>
       </c>
       <c r="H18">
-        <v>4.60858507828937</v>
+        <v>4.588632883687324</v>
       </c>
       <c r="I18">
-        <v>2.947229650286464</v>
+        <v>2.827708953326445</v>
       </c>
       <c r="J18">
-        <v>10.79608434055851</v>
+        <v>10.47790930127168</v>
       </c>
       <c r="K18">
-        <v>16.18242244135678</v>
+        <v>14.99808805297484</v>
       </c>
       <c r="L18">
-        <v>6.76425678750632</v>
+        <v>12.0512927179363</v>
       </c>
       <c r="M18">
-        <v>14.13721339588898</v>
+        <v>10.14549387070664</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.800143697953103</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.29591700683019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.42929051943301</v>
+        <v>15.32208786552514</v>
       </c>
       <c r="C19">
-        <v>10.4602493609565</v>
+        <v>11.17866534472538</v>
       </c>
       <c r="D19">
-        <v>8.715685847611674</v>
+        <v>9.179227176901769</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.34749908672678</v>
+        <v>26.70952955277582</v>
       </c>
       <c r="G19">
-        <v>32.82289103317434</v>
+        <v>29.7030210327705</v>
       </c>
       <c r="H19">
-        <v>3.12121425845152</v>
+        <v>3.094781931874582</v>
       </c>
       <c r="I19">
-        <v>2.929772978837099</v>
+        <v>2.814461609573342</v>
       </c>
       <c r="J19">
-        <v>11.23817741149911</v>
+        <v>10.86018154877996</v>
       </c>
       <c r="K19">
-        <v>16.94815618386291</v>
+        <v>15.58801276986797</v>
       </c>
       <c r="L19">
-        <v>7.911603631747637</v>
+        <v>12.48697410134963</v>
       </c>
       <c r="M19">
-        <v>14.15082168438731</v>
+        <v>10.60984037843526</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.942441307725735</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.32851348709092</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.66996209086208</v>
+        <v>15.51964415579187</v>
       </c>
       <c r="C20">
-        <v>11.06305370986924</v>
+        <v>11.95874056556722</v>
       </c>
       <c r="D20">
-        <v>10.30667862793051</v>
+        <v>10.87872914122825</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.72710013077741</v>
+        <v>29.63299886460037</v>
       </c>
       <c r="G20">
-        <v>36.78711772665</v>
+        <v>33.17840628125392</v>
       </c>
       <c r="H20">
-        <v>1.660831952355188</v>
+        <v>1.692357814501339</v>
       </c>
       <c r="I20">
-        <v>2.798795091185332</v>
+        <v>2.704771368789917</v>
       </c>
       <c r="J20">
-        <v>11.95671875152034</v>
+        <v>11.3133938677594</v>
       </c>
       <c r="K20">
-        <v>18.1948455496624</v>
+        <v>16.45575560869011</v>
       </c>
       <c r="L20">
-        <v>9.965068754998327</v>
+        <v>13.08666641276863</v>
       </c>
       <c r="M20">
-        <v>14.5130501989046</v>
+        <v>11.35848510874346</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.984299123229704</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.71670478572474</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.60094513279698</v>
+        <v>16.4367759231562</v>
       </c>
       <c r="C21">
-        <v>11.76729698879529</v>
+        <v>12.62836540330163</v>
       </c>
       <c r="D21">
-        <v>10.99566890046593</v>
+        <v>11.76560566891918</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.01357490404379</v>
+        <v>30.13300819319926</v>
       </c>
       <c r="G21">
-        <v>38.23216679086216</v>
+        <v>35.43790200421995</v>
       </c>
       <c r="H21">
-        <v>1.98144852740154</v>
+        <v>1.985998420214417</v>
       </c>
       <c r="I21">
-        <v>2.564991903480653</v>
+        <v>2.525029197849364</v>
       </c>
       <c r="J21">
-        <v>12.13492186120754</v>
+        <v>10.48865416680787</v>
       </c>
       <c r="K21">
-        <v>18.44656374186319</v>
+        <v>16.21479318285835</v>
       </c>
       <c r="L21">
-        <v>10.58212008934912</v>
+        <v>12.78385157609332</v>
       </c>
       <c r="M21">
-        <v>15.35142544458092</v>
+        <v>11.37332112682967</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.58480851938734</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.53451267424631</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.19144829615394</v>
+        <v>17.02137458033256</v>
       </c>
       <c r="C22">
-        <v>12.16586428023771</v>
+        <v>12.9910891044001</v>
       </c>
       <c r="D22">
-        <v>11.35159454038662</v>
+        <v>12.25179131590883</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.74884703963461</v>
+        <v>30.3414810391178</v>
       </c>
       <c r="G22">
-        <v>39.08821617582065</v>
+        <v>36.93439875763416</v>
       </c>
       <c r="H22">
-        <v>2.178997203983794</v>
+        <v>2.166281805088521</v>
       </c>
       <c r="I22">
-        <v>2.594147941107982</v>
+        <v>2.636364408307676</v>
       </c>
       <c r="J22">
-        <v>12.23889177313138</v>
+        <v>9.932813031340119</v>
       </c>
       <c r="K22">
-        <v>18.5961736214239</v>
+        <v>16.02976215363482</v>
       </c>
       <c r="L22">
-        <v>10.88070331018644</v>
+        <v>12.57044939011788</v>
       </c>
       <c r="M22">
-        <v>15.86750691570318</v>
+        <v>11.36789268549449</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.87327310713071</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.03495706141434</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.88508918944674</v>
+        <v>16.71465213671327</v>
       </c>
       <c r="C23">
-        <v>11.92670620289605</v>
+        <v>12.78972560841956</v>
       </c>
       <c r="D23">
-        <v>11.14967234229892</v>
+        <v>11.96531511624228</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.407759590448</v>
+        <v>30.33803303635901</v>
       </c>
       <c r="G23">
-        <v>38.72067547782562</v>
+        <v>36.07770784891905</v>
       </c>
       <c r="H23">
-        <v>2.074743977269973</v>
+        <v>2.072056005706078</v>
       </c>
       <c r="I23">
-        <v>2.514994419494416</v>
+        <v>2.571024633394879</v>
       </c>
       <c r="J23">
-        <v>12.2011249127586</v>
+        <v>10.33381377481567</v>
       </c>
       <c r="K23">
-        <v>18.55612841930367</v>
+        <v>16.19581723424197</v>
       </c>
       <c r="L23">
-        <v>10.72275124372613</v>
+        <v>12.72964284858769</v>
       </c>
       <c r="M23">
-        <v>15.58904258860923</v>
+        <v>11.4264404532629</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.72117124942008</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.76898412532527</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.66150282171028</v>
+        <v>15.50814553622108</v>
       </c>
       <c r="C24">
-        <v>11.03504821225897</v>
+        <v>11.94430172214397</v>
       </c>
       <c r="D24">
-        <v>10.37778990159882</v>
+        <v>10.95501455541719</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.01811189790315</v>
+        <v>29.90086570652539</v>
       </c>
       <c r="G24">
-        <v>37.17852159333722</v>
+        <v>33.51322542926341</v>
       </c>
       <c r="H24">
-        <v>1.670666177948923</v>
+        <v>1.701993996928243</v>
       </c>
       <c r="I24">
-        <v>2.777883283520067</v>
+        <v>2.680445307563809</v>
       </c>
       <c r="J24">
-        <v>12.03464182813862</v>
+        <v>11.38658104574952</v>
       </c>
       <c r="K24">
-        <v>18.34718751885712</v>
+        <v>16.58124721140945</v>
       </c>
       <c r="L24">
-        <v>10.10366870413163</v>
+        <v>13.17993339597245</v>
       </c>
       <c r="M24">
-        <v>14.49898165302391</v>
+        <v>11.45579814665395</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.12254903643183</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.70519660968005</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.22694890249455</v>
+        <v>14.12839456836954</v>
       </c>
       <c r="C25">
-        <v>10.00777227592455</v>
+        <v>10.75971421951083</v>
       </c>
       <c r="D25">
-        <v>9.48493496863226</v>
+        <v>9.980822650162322</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.48903183510471</v>
+        <v>28.72659289109532</v>
       </c>
       <c r="G25">
-        <v>35.50555239780294</v>
+        <v>32.27950092811365</v>
       </c>
       <c r="H25">
-        <v>1.912756174073799</v>
+        <v>1.854968357614813</v>
       </c>
       <c r="I25">
-        <v>3.117520222508169</v>
+        <v>2.97303718395536</v>
       </c>
       <c r="J25">
-        <v>11.86709501434197</v>
+        <v>11.36560260064089</v>
       </c>
       <c r="K25">
-        <v>18.13855348402632</v>
+        <v>16.62780709818076</v>
       </c>
       <c r="L25">
-        <v>9.393680617167817</v>
+        <v>13.40474766688652</v>
       </c>
       <c r="M25">
-        <v>13.2298898828941</v>
+        <v>11.23218138016156</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.428802871308058</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.41892802974611</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
